--- a/sheets/ice-ta-rangoli.xlsx
+++ b/sheets/ice-ta-rangoli.xlsx
@@ -35,222 +35,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="803">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Image</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="798">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Pulli Kolam | Dotted Kolam</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/i_HthOzKsis/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>pulli</t>
+  </si>
+  <si>
+    <t>Kolam, Muggulu, Rangoli, With colors, With dots</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Source</t>
+    <t>New Year Kolam</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/P0sAe8lmh40/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>youtubeID</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>newyear</t>
+  </si>
+  <si>
+    <t>Pongal Kolam | Sankranthi Muggulu</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/2cKgclw3Rv8/mqdefault.jpg</t>
   </si>
   <si>
     <t>muggulu for new year</t>
   </si>
   <si>
+    <t>pongal</t>
+  </si>
+  <si>
+    <t>Color Kolam with dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/9a_0FHK6PYM/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Diwali Rangoli | Deepavali Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/RWu__w6SCiQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>diwali</t>
+  </si>
+  <si>
+    <t>Margazhi Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/uCxqbM-XqEo/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>margazhi</t>
+  </si>
+  <si>
+    <t>Flower Design Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/D7UO9z9KDFg/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://img.youtube.com/vi/y2q9SknXvKQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gyqd_40YpsI&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=2</t>
-  </si>
-  <si>
-    <t>y2q9SknXvKQ</t>
-  </si>
-  <si>
-    <t>S2Kolam</t>
-  </si>
-  <si>
-    <t>new year rangoli designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Gyqd_40YpsI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Gyqd_40YpsI</t>
-  </si>
-  <si>
-    <t>New year rangoli without dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/T999uEItVvw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T999uEItVvw&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=4</t>
-  </si>
-  <si>
-    <t>T999uEItVvw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new year 2018 rangoli designs </t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/IPbzR57sKms/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IPbzR57sKms</t>
-  </si>
-  <si>
-    <t>IPbzR57sKms</t>
-  </si>
-  <si>
-    <t>easy rangoli</t>
-  </si>
-  <si>
-    <t>special colour rangoli with dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/JcHjL8MCoGk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JcHjL8MCoGk</t>
-  </si>
-  <si>
-    <t>JcHjL8MCoGk</t>
-  </si>
-  <si>
-    <t>Teluginti Muggulu</t>
-  </si>
-  <si>
-    <t>New year bird rangoli design 2018</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/yZej0PLUavw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yZej0PLUavw</t>
-  </si>
-  <si>
-    <t>yZej0PLUavw</t>
-  </si>
-  <si>
-    <t>simple rangoli</t>
-  </si>
-  <si>
-    <t>new year muggulu designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/A0XCqmYNqDA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A0XCqmYNqDA&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=7</t>
-  </si>
-  <si>
-    <t>A0XCqmYNqDA</t>
-  </si>
-  <si>
-    <t>New year rangoli designs with dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/vnK6c9c20YI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vnK6c9c20YI&amp;index=12&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo</t>
-  </si>
-  <si>
-    <t>vnK6c9c20YI</t>
-  </si>
-  <si>
-    <t>rangoli designs - freehand rangoli</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/P0sAe8lmh40/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P0sAe8lmh40&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=14</t>
-  </si>
-  <si>
-    <t>P0sAe8lmh40</t>
-  </si>
-  <si>
-    <t>muggulu rangoli kolam</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/DdjG57m-xh4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DdjG57m-xh4</t>
-  </si>
-  <si>
-    <t>DdjG57m-xh4</t>
-  </si>
-  <si>
-    <t>muggulu rangoli</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Pulli Kolam | Dotted Kolam</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/i_HthOzKsis/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>pulli</t>
-  </si>
-  <si>
-    <t>Kolam, Muggulu, Rangoli, With colors, With dots</t>
-  </si>
-  <si>
-    <t>New Year Kolam</t>
-  </si>
-  <si>
-    <t>newyear</t>
-  </si>
-  <si>
-    <t>Pongal Kolam | Sankranthi Muggulu</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/2cKgclw3Rv8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>pongal</t>
-  </si>
-  <si>
-    <t>Color Kolam with dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/9a_0FHK6PYM/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>Diwali Rangoli | Deepavali Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/RWu__w6SCiQ/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>diwali</t>
-  </si>
-  <si>
-    <t>Margazhi Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/uCxqbM-XqEo/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>margazhi</t>
-  </si>
-  <si>
-    <t>Flower Design Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/D7UO9z9KDFg/hqdefault.jpg</t>
   </si>
   <si>
     <t>flower</t>
@@ -278,24 +152,69 @@
     <t>Birds Kolam</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Gyqd_40YpsI&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=2</t>
+  </si>
+  <si>
+    <t>y2q9SknXvKQ</t>
+  </si>
+  <si>
+    <t>S2Kolam</t>
+  </si>
+  <si>
+    <t>new year rangoli designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Gyqd_40YpsI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Gyqd_40YpsI</t>
+  </si>
+  <si>
+    <t>New year rangoli without dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/T999uEItVvw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T999uEItVvw&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=4</t>
+  </si>
+  <si>
+    <t>T999uEItVvw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new year 2018 rangoli designs </t>
+  </si>
+  <si>
     <t>birds</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/IPbzR57sKms/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>Kolam with Flowers</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/IGTojrViJho/hqdefault.jpg</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=IPbzR57sKms</t>
+  </si>
+  <si>
     <t>withflowers</t>
   </si>
   <si>
     <t>Onam Rangoli</t>
   </si>
   <si>
+    <t>IPbzR57sKms</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/Y9elOLXRHn8/hqdefault.jpg</t>
   </si>
   <si>
+    <t>easy rangoli</t>
+  </si>
+  <si>
     <t>onam</t>
   </si>
   <si>
@@ -323,9 +242,15 @@
     <t>https://i.ytimg.com/vi/kaJ97Hzz9J8/hqdefault.jpg</t>
   </si>
   <si>
+    <t>special colour rangoli with dots</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/JcHjL8MCoGk/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>Sangu Kolam</t>
   </si>
   <si>
@@ -353,12 +278,21 @@
     <t>vinayagar</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JcHjL8MCoGk</t>
+  </si>
+  <si>
     <t>Butterfly Rangoli</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/9JQVTQdqXS0/hqdefault.jpg</t>
   </si>
   <si>
+    <t>JcHjL8MCoGk</t>
+  </si>
+  <si>
+    <t>Teluginti Muggulu</t>
+  </si>
+  <si>
     <t>butterfly</t>
   </si>
   <si>
@@ -389,19 +323,34 @@
     <t>lotus</t>
   </si>
   <si>
+    <t>New year bird rangoli design 2018</t>
+  </si>
+  <si>
     <t>Peacock Kolam</t>
   </si>
   <si>
+    <t>https://img.youtube.com/vi/yZej0PLUavw/mqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/A1dWDe6vLzo/hqdefault.jpg</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=yZej0PLUavw</t>
+  </si>
+  <si>
     <t>peacock</t>
   </si>
   <si>
     <t>Other Festival Kolam</t>
   </si>
   <si>
+    <t>yZej0PLUavw</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/XmnZ2Kj6dvU/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>simple rangoli</t>
   </si>
   <si>
     <t>others</t>
@@ -411,6 +360,54 @@
 Aadi Perukku, Tamil new Year </t>
   </si>
   <si>
+    <t>new year muggulu designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/A0XCqmYNqDA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A0XCqmYNqDA&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=7</t>
+  </si>
+  <si>
+    <t>A0XCqmYNqDA</t>
+  </si>
+  <si>
+    <t>New year rangoli designs with dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/vnK6c9c20YI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vnK6c9c20YI&amp;index=12&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo</t>
+  </si>
+  <si>
+    <t>vnK6c9c20YI</t>
+  </si>
+  <si>
+    <t>rangoli designs - freehand rangoli</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0sAe8lmh40&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=14</t>
+  </si>
+  <si>
+    <t>P0sAe8lmh40</t>
+  </si>
+  <si>
+    <t>muggulu rangoli kolam</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/DdjG57m-xh4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DdjG57m-xh4</t>
+  </si>
+  <si>
+    <t>DdjG57m-xh4</t>
+  </si>
+  <si>
+    <t>muggulu rangoli</t>
+  </si>
+  <si>
     <t>pulli kolam | 9 dots sikku kolam</t>
   </si>
   <si>
@@ -651,6 +648,117 @@
     <t>RWu__w6SCiQ</t>
   </si>
   <si>
+    <t>kolam/star kolam with colours</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/f-b72I8vh9w/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-b72I8vh9w</t>
+  </si>
+  <si>
+    <t>f-b72I8vh9w</t>
+  </si>
+  <si>
+    <t>vin meen</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9a_0FHK6PYM&amp;t=63s</t>
+  </si>
+  <si>
+    <t>9a_0FHK6PYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colorful muggulu designs with 7x4 dots </t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/erKLgCrIiq8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=erKLgCrIiq8</t>
+  </si>
+  <si>
+    <t>erKLgCrIiq8</t>
+  </si>
+  <si>
+    <t>Design With Colours Dots 11x6</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/F98aZ5JZudU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F98aZ5JZudU</t>
+  </si>
+  <si>
+    <t>F98aZ5JZudU</t>
+  </si>
+  <si>
+    <t>rangoli designs with 7x4 dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/FrUdUIhVlnI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FrUdUIhVlnI&amp;t=36s</t>
+  </si>
+  <si>
+    <t>FrUdUIhVlnI</t>
+  </si>
+  <si>
+    <t>peacock rangoli designs with 5x3 dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Z0wsQ8q19YE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z0wsQ8q19YE&amp;list=PL1z0hHA-TPf_au41aeHJw-LNeh8qgT7Fl</t>
+  </si>
+  <si>
+    <t>Z0wsQ8q19YE</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/_EhSLomw2Wg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_EhSLomw2Wg&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
+  </si>
+  <si>
+    <t>_EhSLomw2Wg</t>
+  </si>
+  <si>
+    <t>#329 Easy Rangoli Designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/tsXJAl7aSJw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tsXJAl7aSJw&amp;index=3&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
+  </si>
+  <si>
+    <t>tsXJAl7aSJw</t>
+  </si>
+  <si>
+    <t>Rangoli Designs with 13 to 1 straight dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/6mC7SFlsCr4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6mC7SFlsCr4&amp;index=4&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
+  </si>
+  <si>
+    <t>6mC7SFlsCr4</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/7YzYVGcBnmk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7YzYVGcBnmk&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_&amp;index=6</t>
+  </si>
+  <si>
+    <t>7YzYVGcBnmk</t>
+  </si>
+  <si>
     <t>10 dots - bhogi kundalu designs -</t>
   </si>
   <si>
@@ -777,123 +885,6 @@
     <t>xfXpREzp0p8</t>
   </si>
   <si>
-    <t>kolam/star kolam with colours</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/f-b72I8vh9w/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-b72I8vh9w</t>
-  </si>
-  <si>
-    <t>f-b72I8vh9w</t>
-  </si>
-  <si>
-    <t>vin meen</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9a_0FHK6PYM&amp;t=63s</t>
-  </si>
-  <si>
-    <t>9a_0FHK6PYM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colorful muggulu designs with 7x4 dots </t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/erKLgCrIiq8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=erKLgCrIiq8</t>
-  </si>
-  <si>
-    <t>erKLgCrIiq8</t>
-  </si>
-  <si>
-    <t>Design With Colours Dots 11x6</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/F98aZ5JZudU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F98aZ5JZudU</t>
-  </si>
-  <si>
-    <t>F98aZ5JZudU</t>
-  </si>
-  <si>
-    <t>rangoli designs with 7x4 dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/FrUdUIhVlnI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FrUdUIhVlnI&amp;t=36s</t>
-  </si>
-  <si>
-    <t>FrUdUIhVlnI</t>
-  </si>
-  <si>
-    <t>peacock rangoli designs with 5x3 dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Z0wsQ8q19YE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z0wsQ8q19YE&amp;list=PL1z0hHA-TPf_au41aeHJw-LNeh8qgT7Fl</t>
-  </si>
-  <si>
-    <t>Z0wsQ8q19YE</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/_EhSLomw2Wg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_EhSLomw2Wg&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
-  </si>
-  <si>
-    <t>_EhSLomw2Wg</t>
-  </si>
-  <si>
-    <t>#329 Easy Rangoli Designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/tsXJAl7aSJw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tsXJAl7aSJw&amp;index=3&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
-  </si>
-  <si>
-    <t>tsXJAl7aSJw</t>
-  </si>
-  <si>
-    <t>Rangoli Designs with 13 to 1 straight dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/6mC7SFlsCr4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6mC7SFlsCr4&amp;index=4&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_</t>
-  </si>
-  <si>
-    <t>6mC7SFlsCr4</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/7YzYVGcBnmk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7YzYVGcBnmk&amp;list=PLiP5oL9-o5FZn9ZFZxZq0CuvU50XLY5j_&amp;index=6</t>
-  </si>
-  <si>
-    <t>7YzYVGcBnmk</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>simple easy flower kolam with dots 9 colour for beginners and learners</t>
   </si>
   <si>
@@ -1302,9 +1293,6 @@
     <t>Kcjwl39D6Ks</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>Beautiful flower kolam with colors</t>
   </si>
   <si>
@@ -1389,51 +1377,117 @@
     <t>Flower Rangoli # Peacock Rangoli</t>
   </si>
   <si>
+    <t>Easy Color Rangoli Design For HOLI Festival</t>
+  </si>
+  <si>
     <t>https://youtu.be/Y9elOLXRHn8</t>
   </si>
   <si>
+    <t>https://youtu.be/1gPPU1vj304</t>
+  </si>
+  <si>
     <t>Y9elOLXRHn8</t>
   </si>
   <si>
+    <t>1gPPU1vj304</t>
+  </si>
+  <si>
     <t>Rangoli Arts &amp; Salad Decorations</t>
   </si>
   <si>
+    <t>Pakka Local</t>
+  </si>
+  <si>
     <t>Onam Pookalam</t>
   </si>
   <si>
+    <t>Colorful Holi Special Rangoli</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/OXm5BcxnjnI/hqdefault.jpg</t>
   </si>
   <si>
+    <t>https://i.ytimg.com/vi/aMIOjhjnUok/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://youtu.be/OXm5BcxnjnI</t>
   </si>
   <si>
+    <t>https://youtu.be/aMIOjhjnUok</t>
+  </si>
+  <si>
     <t>OXm5BcxnjnI</t>
   </si>
   <si>
+    <t>aMIOjhjnUok</t>
+  </si>
+  <si>
+    <t>Rangoli &amp; Art</t>
+  </si>
+  <si>
+    <t>simple kolam designs with 7x3 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/G64iGZ7PIU4/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G64iGZ7PIU4</t>
+  </si>
+  <si>
+    <t>G64iGZ7PIU4</t>
+  </si>
+  <si>
+    <t>Rangoli Design with colours for fesitvals and competitions with dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/OKDdWOgz6mo/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>Friday Magazine</t>
   </si>
   <si>
+    <t>https://youtu.be/OKDdWOgz6mo</t>
+  </si>
+  <si>
     <t>simple onam atha pookalam</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/AmNPprbICPQ/hqdefault.jpg</t>
   </si>
   <si>
+    <t>OKDdWOgz6mo</t>
+  </si>
+  <si>
+    <t>Rangoli design with Colours Competitions With dots 11x6</t>
+  </si>
+  <si>
     <t>https://youtu.be/AmNPprbICPQ</t>
   </si>
   <si>
+    <t>https://i.ytimg.com/vi/3P3vt6M2His/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>AmNPprbICPQ</t>
   </si>
   <si>
     <t>ABD AnyBody Can Draw</t>
   </si>
   <si>
+    <t>https://youtu.be/3P3vt6M2His</t>
+  </si>
+  <si>
     <t>How to make a Onam pookalam</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/9zKF8Dnf9sw/hqdefault.jpg</t>
   </si>
   <si>
+    <t>3P3vt6M2His</t>
+  </si>
+  <si>
+    <t>Easy Colourful Rangoli Design for Festivals with dots 13x7</t>
+  </si>
+  <si>
     <t>https://youtu.be/9zKF8Dnf9sw</t>
   </si>
   <si>
@@ -1446,9 +1500,15 @@
     <t>Making Onappookkalam</t>
   </si>
   <si>
+    <t>https://youtu.be/RFA8wIdDQcc</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/wsozvVUwa70/hqdefault.jpg</t>
   </si>
   <si>
+    <t>RFA8wIdDQcc</t>
+  </si>
+  <si>
     <t>https://youtu.be/wsozvVUwa70</t>
   </si>
   <si>
@@ -1488,78 +1548,6 @@
     <t>Rangoli designs with colours // Arts and Crafts</t>
   </si>
   <si>
-    <t>Easy Color Rangoli Design For HOLI Festival</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1gPPU1vj304</t>
-  </si>
-  <si>
-    <t>1gPPU1vj304</t>
-  </si>
-  <si>
-    <t>Pakka Local</t>
-  </si>
-  <si>
-    <t>Colorful Holi Special Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/aMIOjhjnUok/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aMIOjhjnUok</t>
-  </si>
-  <si>
-    <t>aMIOjhjnUok</t>
-  </si>
-  <si>
-    <t>Rangoli &amp; Art</t>
-  </si>
-  <si>
-    <t>simple kolam designs with 7x3 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/G64iGZ7PIU4/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/G64iGZ7PIU4</t>
-  </si>
-  <si>
-    <t>G64iGZ7PIU4</t>
-  </si>
-  <si>
-    <t>Rangoli Design with colours for fesitvals and competitions with dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/OKDdWOgz6mo/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/OKDdWOgz6mo</t>
-  </si>
-  <si>
-    <t>OKDdWOgz6mo</t>
-  </si>
-  <si>
-    <t>Rangoli design with Colours Competitions With dots 11x6</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3P3vt6M2His/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3P3vt6M2His</t>
-  </si>
-  <si>
-    <t>3P3vt6M2His</t>
-  </si>
-  <si>
-    <t>Easy Colourful Rangoli Design for Festivals with dots 13x7</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RFA8wIdDQcc</t>
-  </si>
-  <si>
-    <t>RFA8wIdDQcc</t>
-  </si>
-  <si>
     <t>Small Fish Kolam Designs With 11-1 Dots</t>
   </si>
   <si>
@@ -1635,6 +1623,171 @@
     <t>TCp4EWQKxCE</t>
   </si>
   <si>
+    <t>17to17 dots rangoli for mahashivratri</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/C5pKc_8eGpQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C5pKc_8eGpQ</t>
+  </si>
+  <si>
+    <t>C5pKc_8eGpQ</t>
+  </si>
+  <si>
+    <t>Hemlata's Rangoli Designs</t>
+  </si>
+  <si>
+    <t>Special Shiva ratri Muggulu</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GSRd1_aRxHo</t>
+  </si>
+  <si>
+    <t>GSRd1_aRxHo</t>
+  </si>
+  <si>
+    <t>Lovely Kolam</t>
+  </si>
+  <si>
+    <t>dots rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/68829aQjCs0/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/68829aQjCs0</t>
+  </si>
+  <si>
+    <t>68829aQjCs0</t>
+  </si>
+  <si>
+    <t>Easy 11x11 dots Shiva Lingam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Cw1w-p2foSU/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cw1w-p2foSU</t>
+  </si>
+  <si>
+    <t>Cw1w-p2foSU</t>
+  </si>
+  <si>
+    <t>Pedda Balashiksha</t>
+  </si>
+  <si>
+    <t>Shiva muggulu | kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/-e2PxHvAUd0/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-e2PxHvAUd0</t>
+  </si>
+  <si>
+    <t>e2PxHvAUd0</t>
+  </si>
+  <si>
+    <t>KRISHNASOUL</t>
+  </si>
+  <si>
+    <t>Kolam - 10x10 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/0CAQ5lWIg6M/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0CAQ5lWIg6M</t>
+  </si>
+  <si>
+    <t>0CAQ5lWIg6M</t>
+  </si>
+  <si>
+    <t>Madhavi Creations TV</t>
+  </si>
+  <si>
+    <t>sangu kolam | 15*8 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/COi3WRP0TNs/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>Sangu kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>Rangoli New Design</t>
+  </si>
+  <si>
+    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>5X1 middle dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>Daily Rangoli</t>
+  </si>
+  <si>
+    <t>Festivals with dots 13x7</t>
+  </si>
+  <si>
+    <t>13x7 Easy Rainbow Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1Xmc9xb8A0s</t>
+  </si>
+  <si>
+    <t>1Xmc9xb8A0s</t>
+  </si>
+  <si>
     <t>Santa claus Rangoli with 21x14 straight Dots</t>
   </si>
   <si>
@@ -1716,169 +1869,187 @@
     <t>i6jrBhddpaE</t>
   </si>
   <si>
-    <t>sangu kolam | 15*8 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/COi3WRP0TNs/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>Sangu kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>17to17 dots rangoli for mahashivratri</t>
-  </si>
-  <si>
-    <t>U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/C5pKc_8eGpQ/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Rangoli New Design</t>
-  </si>
-  <si>
-    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/C5pKc_8eGpQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>C5pKc_8eGpQ</t>
-  </si>
-  <si>
-    <t>Hemlata's Rangoli Designs</t>
-  </si>
-  <si>
-    <t>ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>Special Shiva ratri Muggulu</t>
-  </si>
-  <si>
-    <t>5X1 middle dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GSRd1_aRxHo</t>
-  </si>
-  <si>
-    <t>https://youtu.be/L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>GSRd1_aRxHo</t>
-  </si>
-  <si>
-    <t>Lovely Kolam</t>
-  </si>
-  <si>
-    <t>dots rangoli designs</t>
-  </si>
-  <si>
-    <t>L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/68829aQjCs0/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/68829aQjCs0</t>
-  </si>
-  <si>
-    <t>https://youtu.be/b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>68829aQjCs0</t>
-  </si>
-  <si>
-    <t>b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>Easy 11x11 dots Shiva Lingam</t>
-  </si>
-  <si>
-    <t>Daily Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Cw1w-p2foSU/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Festivals with dots 13x7</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Cw1w-p2foSU</t>
-  </si>
-  <si>
-    <t>Cw1w-p2foSU</t>
-  </si>
-  <si>
-    <t>Pedda Balashiksha</t>
-  </si>
-  <si>
-    <t>Shiva muggulu | kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/-e2PxHvAUd0/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>13x7 Easy Rainbow Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/-e2PxHvAUd0</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>e2PxHvAUd0</t>
-  </si>
-  <si>
-    <t>KRISHNASOUL</t>
-  </si>
-  <si>
-    <t>Kolam - 10x10 Dots</t>
-  </si>
-  <si>
-    <t>1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/0CAQ5lWIg6M/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0CAQ5lWIg6M</t>
-  </si>
-  <si>
-    <t>0CAQ5lWIg6M</t>
-  </si>
-  <si>
-    <t>Madhavi Creations TV</t>
+    <t>Beautiful Butterfly rangoli kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/sFyte69z454/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sFyte69z454</t>
+  </si>
+  <si>
+    <t>sFyte69z454</t>
+  </si>
+  <si>
+    <t>simple butterfly kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9JQVTQdqXS0</t>
+  </si>
+  <si>
+    <t>9JQVTQdqXS0</t>
+  </si>
+  <si>
+    <t>Rangoli Art | 7 to 4 Interlaced Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/yzJ8lfMxlck/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yzJ8lfMxlck</t>
+  </si>
+  <si>
+    <t>yzJ8lfMxlck</t>
+  </si>
+  <si>
+    <t>Simple Butterfly Rangoli Design with Colours &amp; dots 9x5</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/HnFDl171M4M/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HnFDl171M4M</t>
+  </si>
+  <si>
+    <t>HnFDl171M4M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple flower rangoli with dots 12-2-2 </t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/KiCPCRXBOwo/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KiCPCRXBOwo</t>
+  </si>
+  <si>
+    <t>KiCPCRXBOwo</t>
+  </si>
+  <si>
+    <t>Dheepiika Rangolis</t>
+  </si>
+  <si>
+    <t>butterfly kolam 8 by 8 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/I_SIoefeXYA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/I_SIoefeXYA</t>
+  </si>
+  <si>
+    <t>I_SIoefeXYA</t>
+  </si>
+  <si>
+    <t>Beautiful butterfly rangoli kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/XWralSEEXGI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XWralSEEXGI</t>
+  </si>
+  <si>
+    <t>XWralSEEXGI</t>
+  </si>
+  <si>
+    <t>Daily Rangoli Design With Colours and Dots 13x7</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/xwcVkfIm5EE/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xwcVkfIm5EE</t>
+  </si>
+  <si>
+    <t>xwcVkfIm5EE</t>
+  </si>
+  <si>
+    <t>KARTHIGAI DEEPAM RANGOLI WITH 7 TO 4 DOTS</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/jjsF8YKbD8I/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jjsF8YKbD8I</t>
+  </si>
+  <si>
+    <t>jjsF8YKbD8I</t>
+  </si>
+  <si>
+    <t>Simple Rangoli Designs</t>
+  </si>
+  <si>
+    <t>karthigai deepam kolam designs | 13 * 3 dots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sPqNRUmLHi0</t>
+  </si>
+  <si>
+    <t>sPqNRUmLHi0</t>
+  </si>
+  <si>
+    <t>karthigai deepam kolam | 11*6 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/x-7MGIWBUDA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/x-7MGIWBUDA</t>
+  </si>
+  <si>
+    <t>x-7MGIWBUDA</t>
+  </si>
+  <si>
+    <t>rangoli for karthigai deepam | 6 * 1 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/NIJ8uMeOv_c/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NIJ8uMeOv_c</t>
+  </si>
+  <si>
+    <t>NIJ8uMeOv_c</t>
+  </si>
+  <si>
+    <t>Karthigai Deepam kolam with dots | 9 dots rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/55tCgzizRdc/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/55tCgzizRdc</t>
+  </si>
+  <si>
+    <t>55tCgzizRdc</t>
+  </si>
+  <si>
+    <t>Sudha Balaji - Rangoli sans dots</t>
+  </si>
+  <si>
+    <t>9 to 1 Straight Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ca6vtcgJuW4/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ca6vtcgJuW4</t>
+  </si>
+  <si>
+    <t>ca6vtcgJuW4</t>
+  </si>
+  <si>
+    <t>5 to 3 Interlaced Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/IZzZupyipNA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IZzZupyipNA</t>
+  </si>
+  <si>
+    <t>IZzZupyipNA</t>
   </si>
   <si>
     <t>ganesh chaturthi special rangoli design</t>
@@ -1968,187 +2139,79 @@
     <t>fuqzN6iCKoI</t>
   </si>
   <si>
-    <t>Beautiful Butterfly rangoli kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/sFyte69z454/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/sFyte69z454</t>
-  </si>
-  <si>
-    <t>sFyte69z454</t>
-  </si>
-  <si>
-    <t>simple butterfly kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9JQVTQdqXS0</t>
-  </si>
-  <si>
-    <t>9JQVTQdqXS0</t>
-  </si>
-  <si>
-    <t>Rangoli Art | 7 to 4 Interlaced Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/yzJ8lfMxlck/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/yzJ8lfMxlck</t>
-  </si>
-  <si>
-    <t>yzJ8lfMxlck</t>
-  </si>
-  <si>
-    <t>Simple Butterfly Rangoli Design with Colours &amp; dots 9x5</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/HnFDl171M4M/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/HnFDl171M4M</t>
-  </si>
-  <si>
-    <t>HnFDl171M4M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simple flower rangoli with dots 12-2-2 </t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/KiCPCRXBOwo/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/KiCPCRXBOwo</t>
-  </si>
-  <si>
-    <t>KiCPCRXBOwo</t>
-  </si>
-  <si>
-    <t>Dheepiika Rangolis</t>
-  </si>
-  <si>
-    <t>butterfly kolam 8 by 8 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/I_SIoefeXYA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/I_SIoefeXYA</t>
-  </si>
-  <si>
-    <t>I_SIoefeXYA</t>
-  </si>
-  <si>
-    <t>Beautiful butterfly rangoli kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/XWralSEEXGI/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/XWralSEEXGI</t>
-  </si>
-  <si>
-    <t>XWralSEEXGI</t>
-  </si>
-  <si>
-    <t>Daily Rangoli Design With Colours and Dots 13x7</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/xwcVkfIm5EE/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xwcVkfIm5EE</t>
-  </si>
-  <si>
-    <t>xwcVkfIm5EE</t>
-  </si>
-  <si>
-    <t>KARTHIGAI DEEPAM RANGOLI WITH 7 TO 4 DOTS</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/jjsF8YKbD8I/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/jjsF8YKbD8I</t>
-  </si>
-  <si>
-    <t>jjsF8YKbD8I</t>
-  </si>
-  <si>
-    <t>Simple Rangoli Designs</t>
-  </si>
-  <si>
-    <t>karthigai deepam kolam designs | 13 * 3 dots</t>
-  </si>
-  <si>
-    <t>https://youtu.be/sPqNRUmLHi0</t>
-  </si>
-  <si>
-    <t>sPqNRUmLHi0</t>
-  </si>
-  <si>
-    <t>karthigai deepam kolam | 11*6 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/x-7MGIWBUDA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/x-7MGIWBUDA</t>
-  </si>
-  <si>
-    <t>x-7MGIWBUDA</t>
-  </si>
-  <si>
-    <t>rangoli for karthigai deepam | 6 * 1 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/NIJ8uMeOv_c/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/NIJ8uMeOv_c</t>
-  </si>
-  <si>
-    <t>NIJ8uMeOv_c</t>
-  </si>
-  <si>
-    <t>Karthigai Deepam kolam with dots | 9 dots rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/55tCgzizRdc/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/55tCgzizRdc</t>
-  </si>
-  <si>
-    <t>55tCgzizRdc</t>
-  </si>
-  <si>
-    <t>Sudha Balaji - Rangoli sans dots</t>
-  </si>
-  <si>
-    <t>9 to 1 Straight Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ca6vtcgJuW4/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ca6vtcgJuW4</t>
-  </si>
-  <si>
-    <t>ca6vtcgJuW4</t>
-  </si>
-  <si>
-    <t>5 to 3 Interlaced Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/IZzZupyipNA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/IZzZupyipNA</t>
-  </si>
-  <si>
-    <t>IZzZupyipNA</t>
+    <t>latest lotus kolam designs with dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/6k1mjs6-ZpI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6k1mjs6-ZpI</t>
+  </si>
+  <si>
+    <t>6k1mjs6-ZpI</t>
+  </si>
+  <si>
+    <t>Lotus Muggulu Design With Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/tmQG4s8lIAg/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tmQG4s8lIAg</t>
+  </si>
+  <si>
+    <t>tmQG4s8lIAg</t>
+  </si>
+  <si>
+    <t>easy rangoli by Rajeshwari Arun</t>
+  </si>
+  <si>
+    <t>muggulu Designs With 11-6 Middle</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/JoOTT7Cwrs0/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JoOTT7Cwrs0</t>
+  </si>
+  <si>
+    <t>JoOTT7Cwrs0</t>
+  </si>
+  <si>
+    <t>6wmY90tkzuI</t>
+  </si>
+  <si>
+    <t>11 to 6 interlaced Dots - Easy Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1AmWEpLIudQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1AmWEpLIudQ</t>
+  </si>
+  <si>
+    <t>1AmWEpLIudQ</t>
+  </si>
+  <si>
+    <t>new Freehand Sankranthi Muggulu</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/e6RigxiX8MI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/oV23wJ5DKqg/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>e6RigxiX8MI</t>
+  </si>
+  <si>
+    <t>Lotus flower kolam designs with 9 dots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oV23wJ5DKqg</t>
+  </si>
+  <si>
+    <t>oV23wJ5DKqg</t>
   </si>
   <si>
     <t>11 dots to 6 dots simple rose colour kolam</t>
@@ -2214,81 +2277,6 @@
     <t>ZtyXKiTDOtc</t>
   </si>
   <si>
-    <t>latest lotus kolam designs with dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/6k1mjs6-ZpI/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/6k1mjs6-ZpI</t>
-  </si>
-  <si>
-    <t>6k1mjs6-ZpI</t>
-  </si>
-  <si>
-    <t>Lotus Muggulu Design With Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/tmQG4s8lIAg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/tmQG4s8lIAg</t>
-  </si>
-  <si>
-    <t>tmQG4s8lIAg</t>
-  </si>
-  <si>
-    <t>easy rangoli by Rajeshwari Arun</t>
-  </si>
-  <si>
-    <t>muggulu Designs With 11-6 Middle</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/JoOTT7Cwrs0/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/JoOTT7Cwrs0</t>
-  </si>
-  <si>
-    <t>JoOTT7Cwrs0</t>
-  </si>
-  <si>
-    <t>6wmY90tkzuI</t>
-  </si>
-  <si>
-    <t>11 to 6 interlaced Dots - Easy Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/1AmWEpLIudQ/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1AmWEpLIudQ</t>
-  </si>
-  <si>
-    <t>1AmWEpLIudQ</t>
-  </si>
-  <si>
-    <t>new Freehand Sankranthi Muggulu</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/e6RigxiX8MI/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/oV23wJ5DKqg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>e6RigxiX8MI</t>
-  </si>
-  <si>
-    <t>Lotus flower kolam designs with 9 dots</t>
-  </si>
-  <si>
-    <t>https://youtu.be/oV23wJ5DKqg</t>
-  </si>
-  <si>
-    <t>oV23wJ5DKqg</t>
-  </si>
-  <si>
     <t>Peacock kolam 15*8 interlaced dots</t>
   </si>
   <si>
@@ -2362,9 +2350,6 @@
   </si>
   <si>
     <t>https://youtu.be/Z0wsQ8q19YE</t>
-  </si>
-  <si>
-    <t>Soure</t>
   </si>
   <si>
     <t>new year 2018 rangoli designs with dots</t>
@@ -2452,35 +2437,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
@@ -2494,9 +2455,33 @@
       <color rgb="FF1155CC"/>
       <name val="'Arial'"/>
     </font>
+    <font/>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -2508,12 +2493,12 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2527,9 +2512,6 @@
       <u/>
       <sz val="9.0"/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
     </font>
     <font>
       <b/>
@@ -2566,48 +2548,48 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -2616,10 +2598,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2634,9 +2616,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2761,287 +2740,287 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>54</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>68</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="26.25">
       <c r="A9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>77</v>
+      <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>91</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
+      <c r="A24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="26.25">
       <c r="A25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3090,122 +3069,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>370</v>
+        <v>341</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3241,139 +3220,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>404</v>
+        <v>145</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -3417,139 +3396,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>421</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3588,139 +3567,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>451</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>455</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>457</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>460</v>
+        <v>470</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>465</v>
+        <v>479</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>470</v>
+        <v>486</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>490</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>475</v>
+        <v>493</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>480</v>
+        <v>498</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3759,122 +3738,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>510</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>530</v>
+        <v>524</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3910,122 +3889,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>484</v>
+        <v>446</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>489</v>
+        <v>454</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>494</v>
+        <v>462</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>498</v>
+        <v>466</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>469</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>502</v>
+        <v>473</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>505</v>
+        <v>482</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4061,139 +4040,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>534</v>
+        <v>583</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>585</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>538</v>
+        <v>587</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>589</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>543</v>
+        <v>592</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>594</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>546</v>
+        <v>596</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>597</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>550</v>
+        <v>599</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>601</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>553</v>
+        <v>599</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>604</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>557</v>
+        <v>606</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>608</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4231,139 +4210,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>562</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>571</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>590</v>
+        <v>573</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>575</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>505</v>
+        <v>578</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>605</v>
+        <v>579</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>581</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -4407,122 +4386,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>572</v>
+        <v>528</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>580</v>
+        <v>533</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>534</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>583</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>589</v>
+        <v>537</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>597</v>
+        <v>541</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>604</v>
+        <v>546</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>548</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>611</v>
+        <v>551</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>553</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>612</v>
+        <v>554</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4559,139 +4538,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>616</v>
+        <v>671</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>673</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>621</v>
+        <v>676</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>678</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>625</v>
+        <v>680</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>629</v>
+        <v>684</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>686</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>633</v>
+        <v>688</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>690</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>637</v>
+        <v>692</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>694</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>641</v>
+        <v>697</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>698</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -4730,207 +4709,207 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
+      <c r="E12" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4985,139 +4964,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>645</v>
+        <v>610</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>612</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>648</v>
+        <v>614</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>615</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>652</v>
+        <v>617</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>619</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>656</v>
+        <v>621</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>660</v>
+        <v>625</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>665</v>
+        <v>630</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>632</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>669</v>
+        <v>634</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>636</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5156,156 +5135,156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>673</v>
+        <v>638</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>640</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>677</v>
+        <v>642</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>644</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>681</v>
+        <v>647</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>648</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>685</v>
+        <v>650</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>652</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>689</v>
+        <v>654</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>656</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>693</v>
+        <v>658</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>660</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>698</v>
+        <v>663</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>665</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>702</v>
+        <v>667</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>669</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5346,156 +5325,156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>706</v>
+        <v>725</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>711</v>
+        <v>730</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>732</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>716</v>
+        <v>735</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>737</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>720</v>
+        <v>739</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>741</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>723</v>
+        <v>743</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>744</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -5536,139 +5515,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>727</v>
+        <v>700</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>702</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>731</v>
+        <v>704</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>706</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>736</v>
+        <v>709</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>711</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>741</v>
+        <v>714</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>716</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>745</v>
+        <v>718</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>720</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>748</v>
+        <v>722</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>723</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5706,139 +5685,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>750</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>401</v>
+        <v>751</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>758</v>
+        <v>752</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>754</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>760</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>757</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>763</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>766</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>770</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5876,122 +5855,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>775</v>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>773</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>776</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>781</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>790</v>
+        <v>783</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>785</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>795</v>
+        <v>788</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>790</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>798</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>800</v>
+        <v>793</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>795</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -6028,190 +6007,190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
+      <c r="A11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6260,190 +6239,190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>206</v>
+      <c r="A2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>211</v>
+      <c r="A3" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>208</v>
+        <v>248</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>215</v>
+      <c r="A4" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>208</v>
+        <v>252</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>219</v>
+      <c r="A5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>208</v>
+        <v>256</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>223</v>
+      <c r="A6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>208</v>
+        <v>260</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>227</v>
+      <c r="A7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>208</v>
+        <v>264</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>231</v>
+      <c r="A8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>268</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>235</v>
+      <c r="A9" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>272</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>239</v>
+      <c r="A10" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>275</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>241</v>
+        <v>276</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>244</v>
+      <c r="A11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="14">
@@ -6496,194 +6475,194 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>248</v>
+      <c r="A2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>250</v>
+        <v>206</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>251</v>
+      <c r="A3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>132</v>
+        <v>209</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>255</v>
+      <c r="A4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>213</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>259</v>
+      <c r="A5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>263</v>
+      <c r="A6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>267</v>
+      <c r="A7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>225</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>270</v>
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>228</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>274</v>
+      <c r="A9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>232</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>278</v>
+      <c r="A10" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>132</v>
+        <v>236</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>281</v>
+      <c r="A11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>132</v>
+        <v>239</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6735,139 +6714,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6905,156 +6884,156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7095,122 +7074,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7246,139 +7225,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="E8" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/ice-ta-rangoli.xlsx
+++ b/sheets/ice-ta-rangoli.xlsx
@@ -20,14 +20,15 @@
     <sheet state="visible" name="holi" sheetId="15" r:id="rId17"/>
     <sheet state="visible" name="christmas" sheetId="16" r:id="rId18"/>
     <sheet state="visible" name="sangu" sheetId="17" r:id="rId19"/>
-    <sheet state="visible" name="shiva" sheetId="18" r:id="rId20"/>
-    <sheet state="visible" name="vinayagar" sheetId="19" r:id="rId21"/>
-    <sheet state="visible" name="butterfly" sheetId="20" r:id="rId22"/>
-    <sheet state="visible" name="karthigai" sheetId="21" r:id="rId23"/>
-    <sheet state="visible" name="rose" sheetId="22" r:id="rId24"/>
-    <sheet state="visible" name="lotus" sheetId="23" r:id="rId25"/>
-    <sheet state="visible" name="peacock" sheetId="24" r:id="rId26"/>
-    <sheet state="visible" name="others" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="curator" sheetId="18" r:id="rId20"/>
+    <sheet state="visible" name="shiva" sheetId="19" r:id="rId21"/>
+    <sheet state="visible" name="vinayagar" sheetId="20" r:id="rId22"/>
+    <sheet state="visible" name="butterfly" sheetId="21" r:id="rId23"/>
+    <sheet state="visible" name="karthigai" sheetId="22" r:id="rId24"/>
+    <sheet state="visible" name="rose" sheetId="23" r:id="rId25"/>
+    <sheet state="visible" name="lotus" sheetId="24" r:id="rId26"/>
+    <sheet state="visible" name="peacock" sheetId="25" r:id="rId27"/>
+    <sheet state="visible" name="others" sheetId="26" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="797">
   <si>
     <t>name</t>
   </si>
@@ -61,21 +62,12 @@
     <t>Kolam, Muggulu, Rangoli, With colors, With dots</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>New Year Kolam</t>
   </si>
   <si>
     <t>https://img.youtube.com/vi/P0sAe8lmh40/mqdefault.jpg</t>
   </si>
   <si>
-    <t>youtubeID</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>newyear</t>
   </si>
   <si>
@@ -85,9 +77,6 @@
     <t>https://img.youtube.com/vi/2cKgclw3Rv8/mqdefault.jpg</t>
   </si>
   <si>
-    <t>muggulu for new year</t>
-  </si>
-  <si>
     <t>pongal</t>
   </si>
   <si>
@@ -122,9 +111,6 @@
   </si>
   <si>
     <t>https://i.ytimg.com/vi/D7UO9z9KDFg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/y2q9SknXvKQ/mqdefault.jpg</t>
   </si>
   <si>
     <t>flower</t>
@@ -152,69 +138,24 @@
     <t>Birds Kolam</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Gyqd_40YpsI&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=2</t>
-  </si>
-  <si>
-    <t>y2q9SknXvKQ</t>
-  </si>
-  <si>
-    <t>S2Kolam</t>
-  </si>
-  <si>
-    <t>new year rangoli designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Gyqd_40YpsI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>Gyqd_40YpsI</t>
-  </si>
-  <si>
-    <t>New year rangoli without dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/T999uEItVvw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=T999uEItVvw&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=4</t>
-  </si>
-  <si>
-    <t>T999uEItVvw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new year 2018 rangoli designs </t>
-  </si>
-  <si>
     <t>birds</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/IPbzR57sKms/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>Kolam with Flowers</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/IGTojrViJho/hqdefault.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IPbzR57sKms</t>
-  </si>
-  <si>
     <t>withflowers</t>
   </si>
   <si>
     <t>Onam Rangoli</t>
   </si>
   <si>
-    <t>IPbzR57sKms</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/Y9elOLXRHn8/hqdefault.jpg</t>
   </si>
   <si>
-    <t>easy rangoli</t>
-  </si>
-  <si>
     <t>onam</t>
   </si>
   <si>
@@ -242,15 +183,9 @@
     <t>https://i.ytimg.com/vi/kaJ97Hzz9J8/hqdefault.jpg</t>
   </si>
   <si>
-    <t>special colour rangoli with dots</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/JcHjL8MCoGk/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>Sangu Kolam</t>
   </si>
   <si>
@@ -278,21 +213,12 @@
     <t>vinayagar</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JcHjL8MCoGk</t>
-  </si>
-  <si>
     <t>Butterfly Rangoli</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/9JQVTQdqXS0/hqdefault.jpg</t>
   </si>
   <si>
-    <t>JcHjL8MCoGk</t>
-  </si>
-  <si>
-    <t>Teluginti Muggulu</t>
-  </si>
-  <si>
     <t>butterfly</t>
   </si>
   <si>
@@ -323,34 +249,19 @@
     <t>lotus</t>
   </si>
   <si>
-    <t>New year bird rangoli design 2018</t>
-  </si>
-  <si>
     <t>Peacock Kolam</t>
   </si>
   <si>
-    <t>https://img.youtube.com/vi/yZej0PLUavw/mqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/A1dWDe6vLzo/hqdefault.jpg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=yZej0PLUavw</t>
-  </si>
-  <si>
     <t>peacock</t>
   </si>
   <si>
     <t>Other Festival Kolam</t>
   </si>
   <si>
-    <t>yZej0PLUavw</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/XmnZ2Kj6dvU/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>simple rangoli</t>
   </si>
   <si>
     <t>others</t>
@@ -360,6 +271,96 @@
 Aadi Perukku, Tamil new Year </t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>youtubeID</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>muggulu for new year</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/y2q9SknXvKQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gyqd_40YpsI&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=2</t>
+  </si>
+  <si>
+    <t>y2q9SknXvKQ</t>
+  </si>
+  <si>
+    <t>S2Kolam</t>
+  </si>
+  <si>
+    <t>new year rangoli designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Gyqd_40YpsI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>Gyqd_40YpsI</t>
+  </si>
+  <si>
+    <t>New year rangoli without dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/T999uEItVvw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T999uEItVvw&amp;list=PLKRWLFbODx6w2LMW4UyuJGsql89a8Kepo&amp;index=4</t>
+  </si>
+  <si>
+    <t>T999uEItVvw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new year 2018 rangoli designs </t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/IPbzR57sKms/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IPbzR57sKms</t>
+  </si>
+  <si>
+    <t>IPbzR57sKms</t>
+  </si>
+  <si>
+    <t>easy rangoli</t>
+  </si>
+  <si>
+    <t>special colour rangoli with dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/JcHjL8MCoGk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JcHjL8MCoGk</t>
+  </si>
+  <si>
+    <t>JcHjL8MCoGk</t>
+  </si>
+  <si>
+    <t>Teluginti Muggulu</t>
+  </si>
+  <si>
+    <t>New year bird rangoli design 2018</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/yZej0PLUavw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yZej0PLUavw</t>
+  </si>
+  <si>
+    <t>yZej0PLUavw</t>
+  </si>
+  <si>
+    <t>simple rangoli</t>
+  </si>
+  <si>
     <t>new year muggulu designs</t>
   </si>
   <si>
@@ -648,6 +649,132 @@
     <t>RWu__w6SCiQ</t>
   </si>
   <si>
+    <t>10 dots - bhogi kundalu designs -</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ter_4S1IT74/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ter_4S1IT74&amp;index=13&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
+  </si>
+  <si>
+    <t>ter_4S1IT74</t>
+  </si>
+  <si>
+    <t>S2 Kolam</t>
+  </si>
+  <si>
+    <t>pongal pot kolam with 15 dots.</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/1C_XHct1RCI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1C_XHct1RCI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=12</t>
+  </si>
+  <si>
+    <t>1C_XHct1RCI</t>
+  </si>
+  <si>
+    <t>bhogi kundalu muggulu</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/sru-rG2ldK4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sru-rG2ldK4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=11</t>
+  </si>
+  <si>
+    <t>sru-rG2ldK4</t>
+  </si>
+  <si>
+    <t>Pongal pot rangoli design with 12 dots.</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/uOdaCSix7AI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uOdaCSix7AI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=10</t>
+  </si>
+  <si>
+    <t>uOdaCSix7AI</t>
+  </si>
+  <si>
+    <t>easy bhogi kundalu designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Gzi_kZspV0M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gzi_kZspV0M&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=6</t>
+  </si>
+  <si>
+    <t>Gzi_kZspV0M</t>
+  </si>
+  <si>
+    <t>kundalu muggulu with 13 dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ZOB9vicTe-Y/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZOB9vicTe-Y&amp;index=4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
+  </si>
+  <si>
+    <t>ZOB9vicTe-Y</t>
+  </si>
+  <si>
+    <t>Pongal Bhogi Pot With Colours</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/KyZpZj67QZU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KyZpZj67QZU&amp;list=PLlzpegbwatcN4wxBMPibctD-PPXfYd8BX</t>
+  </si>
+  <si>
+    <t>KyZpZj67QZU</t>
+  </si>
+  <si>
+    <t>Rangoli By Maya</t>
+  </si>
+  <si>
+    <t>pongal kolam sankranti rangoli</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2cKgclw3Rv8</t>
+  </si>
+  <si>
+    <t>2cKgclw3Rv8</t>
+  </si>
+  <si>
+    <t>Bhogi Kundala Muggu With Dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ndnnPg4dxBQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ndnnPg4dxBQ</t>
+  </si>
+  <si>
+    <t>ndnnPg4dxBQ</t>
+  </si>
+  <si>
+    <t>Fashion World</t>
+  </si>
+  <si>
+    <t>Muggulu With 17 x 3 x 3 Straight Dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/xfXpREzp0p8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xfXpREzp0p8</t>
+  </si>
+  <si>
+    <t>xfXpREzp0p8</t>
+  </si>
+  <si>
     <t>kolam/star kolam with colours</t>
   </si>
   <si>
@@ -726,9 +853,6 @@
     <t>_EhSLomw2Wg</t>
   </si>
   <si>
-    <t>#329 Easy Rangoli Designs</t>
-  </si>
-  <si>
     <t>https://img.youtube.com/vi/tsXJAl7aSJw/mqdefault.jpg</t>
   </si>
   <si>
@@ -759,132 +883,6 @@
     <t>7YzYVGcBnmk</t>
   </si>
   <si>
-    <t>10 dots - bhogi kundalu designs -</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ter_4S1IT74/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ter_4S1IT74&amp;index=13&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
-  </si>
-  <si>
-    <t>ter_4S1IT74</t>
-  </si>
-  <si>
-    <t>S2 Kolam</t>
-  </si>
-  <si>
-    <t>pongal pot kolam with 15 dots.</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/1C_XHct1RCI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1C_XHct1RCI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=12</t>
-  </si>
-  <si>
-    <t>1C_XHct1RCI</t>
-  </si>
-  <si>
-    <t>bhogi kundalu muggulu</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/sru-rG2ldK4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sru-rG2ldK4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=11</t>
-  </si>
-  <si>
-    <t>sru-rG2ldK4</t>
-  </si>
-  <si>
-    <t>Pongal pot rangoli design with 12 dots.</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/uOdaCSix7AI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uOdaCSix7AI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=10</t>
-  </si>
-  <si>
-    <t>uOdaCSix7AI</t>
-  </si>
-  <si>
-    <t>easy bhogi kundalu designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Gzi_kZspV0M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gzi_kZspV0M&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=6</t>
-  </si>
-  <si>
-    <t>Gzi_kZspV0M</t>
-  </si>
-  <si>
-    <t>kundalu muggulu with 13 dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ZOB9vicTe-Y/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZOB9vicTe-Y&amp;index=4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
-  </si>
-  <si>
-    <t>ZOB9vicTe-Y</t>
-  </si>
-  <si>
-    <t>Pongal Bhogi Pot With Colours</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/KyZpZj67QZU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KyZpZj67QZU&amp;list=PLlzpegbwatcN4wxBMPibctD-PPXfYd8BX</t>
-  </si>
-  <si>
-    <t>KyZpZj67QZU</t>
-  </si>
-  <si>
-    <t>Rangoli By Maya</t>
-  </si>
-  <si>
-    <t>pongal kolam sankranti rangoli</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2cKgclw3Rv8</t>
-  </si>
-  <si>
-    <t>2cKgclw3Rv8</t>
-  </si>
-  <si>
-    <t>Bhogi Kundala Muggu With Dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ndnnPg4dxBQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ndnnPg4dxBQ</t>
-  </si>
-  <si>
-    <t>ndnnPg4dxBQ</t>
-  </si>
-  <si>
-    <t>Fashion World</t>
-  </si>
-  <si>
-    <t>Muggulu With 17 x 3 x 3 Straight Dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/xfXpREzp0p8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xfXpREzp0p8</t>
-  </si>
-  <si>
-    <t>xfXpREzp0p8</t>
-  </si>
-  <si>
     <t>simple easy flower kolam with dots 9 colour for beginners and learners</t>
   </si>
   <si>
@@ -981,12 +979,18 @@
     <t>68cmztscpm4&amp;t</t>
   </si>
   <si>
+    <t>Latest freehand kolam</t>
+  </si>
+  <si>
     <t>6wmY90tkzuI&amp;t=6s</t>
   </si>
   <si>
     <t>Rangoli Designs with 9x5 Dots</t>
   </si>
   <si>
+    <t>https://i.ytimg.com/vi/EaB8SsrZZ0s/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://i.ytimg.com/vi/_upp4bbGuFo/hqdefault.jpg</t>
   </si>
   <si>
@@ -1005,30 +1009,87 @@
     <t>https://i.ytimg.com/vi/ZscY36VdQpU/hqdefault.jpg</t>
   </si>
   <si>
+    <t>https://youtu.be/EaB8SsrZZ0s</t>
+  </si>
+  <si>
     <t>https://youtu.be/ZscY36VdQpU</t>
   </si>
   <si>
     <t>ZscY36VdQpU</t>
   </si>
   <si>
+    <t>EaB8SsrZZ0s</t>
+  </si>
+  <si>
     <t>13 DOTS KOLAM | RANGOLI WITH DOTS</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/qTGLhg6Dy_o/hqdefault.jpg</t>
   </si>
   <si>
+    <t>Beautiful and unique rangoli design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/y44KK2ugc60/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>https://youtu.be/qTGLhg6Dy_o</t>
   </si>
   <si>
     <t>qTGLhg6Dy_o</t>
   </si>
   <si>
+    <t>https://youtu.be/y44KK2ugc60</t>
+  </si>
+  <si>
+    <t>y44KK2ugc60</t>
+  </si>
+  <si>
+    <t>Poonam Borkar</t>
+  </si>
+  <si>
+    <t>Freehand Rangoli Designs with colours</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/2ccsotwQABA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ccsotwQABA</t>
+  </si>
+  <si>
+    <t>2ccsotwQABA</t>
+  </si>
+  <si>
+    <t>Shital Daga</t>
+  </si>
+  <si>
+    <t>Simple freehand Rangoli design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/vYmC3Y9I-hg/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vYmC3Y9I-hg</t>
+  </si>
+  <si>
+    <t>vYmC3Y9I-hg</t>
+  </si>
+  <si>
+    <t>Easy freehand Muggulu design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/0ygWtAJRTuA/hqdefault.jpg</t>
+  </si>
+  <si>
     <t>easy rangoli art designs with 7 to 4 interlaced dots</t>
   </si>
   <si>
     <t>https://i.ytimg.com/vi/-_cQ9CHJyJU/hqdefault.jpg</t>
   </si>
   <si>
+    <t>https://youtu.be/0ygWtAJRTuA</t>
+  </si>
+  <si>
     <t>https://youtu.be/-_cQ9CHJyJU</t>
   </si>
   <si>
@@ -1050,69 +1111,6 @@
     <t>Jovi's Flair</t>
   </si>
   <si>
-    <t>Latest freehand kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/EaB8SsrZZ0s/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EaB8SsrZZ0s</t>
-  </si>
-  <si>
-    <t>EaB8SsrZZ0s</t>
-  </si>
-  <si>
-    <t>Beautiful and unique rangoli design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/y44KK2ugc60/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/y44KK2ugc60</t>
-  </si>
-  <si>
-    <t>y44KK2ugc60</t>
-  </si>
-  <si>
-    <t>Poonam Borkar</t>
-  </si>
-  <si>
-    <t>Freehand Rangoli Designs with colours</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/2ccsotwQABA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/2ccsotwQABA</t>
-  </si>
-  <si>
-    <t>2ccsotwQABA</t>
-  </si>
-  <si>
-    <t>Shital Daga</t>
-  </si>
-  <si>
-    <t>Simple freehand Rangoli design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/vYmC3Y9I-hg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/vYmC3Y9I-hg</t>
-  </si>
-  <si>
-    <t>vYmC3Y9I-hg</t>
-  </si>
-  <si>
-    <t>Easy freehand Muggulu design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/0ygWtAJRTuA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0ygWtAJRTuA</t>
-  </si>
-  <si>
     <t>0ygWtAJRTuA</t>
   </si>
   <si>
@@ -1377,48 +1375,201 @@
     <t>Flower Rangoli # Peacock Rangoli</t>
   </si>
   <si>
+    <t>https://youtu.be/Y9elOLXRHn8</t>
+  </si>
+  <si>
+    <t>Y9elOLXRHn8</t>
+  </si>
+  <si>
+    <t>Rangoli Arts &amp; Salad Decorations</t>
+  </si>
+  <si>
+    <t>Onam Pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/OXm5BcxnjnI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OXm5BcxnjnI</t>
+  </si>
+  <si>
+    <t>OXm5BcxnjnI</t>
+  </si>
+  <si>
+    <t>Friday Magazine</t>
+  </si>
+  <si>
+    <t>simple onam atha pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/AmNPprbICPQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AmNPprbICPQ</t>
+  </si>
+  <si>
+    <t>AmNPprbICPQ</t>
+  </si>
+  <si>
+    <t>ABD AnyBody Can Draw</t>
+  </si>
+  <si>
+    <t>How to make a Onam pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/9zKF8Dnf9sw/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9zKF8Dnf9sw</t>
+  </si>
+  <si>
+    <t>9zKF8Dnf9sw</t>
+  </si>
+  <si>
+    <t>tim thankachan</t>
+  </si>
+  <si>
+    <t>Making Onappookkalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/wsozvVUwa70/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wsozvVUwa70</t>
+  </si>
+  <si>
+    <t>wsozvVUwa70</t>
+  </si>
+  <si>
+    <t>Deepa George</t>
+  </si>
+  <si>
+    <t>Make Flower Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/tp3wwLvQOTE/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tp3wwLvQOTE</t>
+  </si>
+  <si>
+    <t>tp3wwLvQOTE</t>
+  </si>
+  <si>
+    <t>Cinecurry Lifestyle</t>
+  </si>
+  <si>
+    <t>flower rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/QMs-RW7DbmA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QMs-RW7DbmA</t>
+  </si>
+  <si>
+    <t>QMs-RW7DbmA</t>
+  </si>
+  <si>
+    <t>Rangoli designs with colours // Arts and Crafts</t>
+  </si>
+  <si>
+    <t>Small Fish Kolam Designs With 11-1 Dots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/voUw4jbAdvs</t>
+  </si>
+  <si>
+    <t>voUw4jbAdvs</t>
+  </si>
+  <si>
+    <t>simple fish rangoli kolam.11*6 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_JQSmK6YNbw/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_JQSmK6YNbw</t>
+  </si>
+  <si>
+    <t>JQSmK6YNbw</t>
+  </si>
+  <si>
+    <t>color rangoli</t>
+  </si>
+  <si>
+    <t>Sankranthi Simple Fish Kolam Designs With 15-8 middle</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/A6WMPqskr58/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/A6WMPqskr58</t>
+  </si>
+  <si>
+    <t>A6WMPqskr58</t>
+  </si>
+  <si>
+    <t>Dot kolam 9 to 9 straight with fish</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/akUWq8FYNPU/hqdefault.jpg?</t>
+  </si>
+  <si>
+    <t>https://youtu.be/akUWq8FYNPU</t>
+  </si>
+  <si>
+    <t>akUWq8FYNPU</t>
+  </si>
+  <si>
+    <t>Learn Kolam</t>
+  </si>
+  <si>
+    <t>easy kolam fish with dots 9 to 5</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Cie_WpzXwS4/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cie_WpzXwS4</t>
+  </si>
+  <si>
+    <t>Cie_WpzXwS4</t>
+  </si>
+  <si>
+    <t>fish kolam designs with 5x3 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TCp4EWQKxCE/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TCp4EWQKxCE</t>
+  </si>
+  <si>
+    <t>TCp4EWQKxCE</t>
+  </si>
+  <si>
     <t>Easy Color Rangoli Design For HOLI Festival</t>
   </si>
   <si>
-    <t>https://youtu.be/Y9elOLXRHn8</t>
-  </si>
-  <si>
     <t>https://youtu.be/1gPPU1vj304</t>
   </si>
   <si>
-    <t>Y9elOLXRHn8</t>
-  </si>
-  <si>
     <t>1gPPU1vj304</t>
   </si>
   <si>
-    <t>Rangoli Arts &amp; Salad Decorations</t>
-  </si>
-  <si>
     <t>Pakka Local</t>
   </si>
   <si>
-    <t>Onam Pookalam</t>
-  </si>
-  <si>
     <t>Colorful Holi Special Rangoli</t>
   </si>
   <si>
-    <t>https://i.ytimg.com/vi/OXm5BcxnjnI/hqdefault.jpg</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/aMIOjhjnUok/hqdefault.jpg</t>
   </si>
   <si>
-    <t>https://youtu.be/OXm5BcxnjnI</t>
-  </si>
-  <si>
     <t>https://youtu.be/aMIOjhjnUok</t>
   </si>
   <si>
-    <t>OXm5BcxnjnI</t>
-  </si>
-  <si>
     <t>aMIOjhjnUok</t>
   </si>
   <si>
@@ -1443,184 +1594,193 @@
     <t>https://i.ytimg.com/vi/OKDdWOgz6mo/hqdefault.jpg</t>
   </si>
   <si>
-    <t>Friday Magazine</t>
-  </si>
-  <si>
     <t>https://youtu.be/OKDdWOgz6mo</t>
   </si>
   <si>
-    <t>simple onam atha pookalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/AmNPprbICPQ/hqdefault.jpg</t>
-  </si>
-  <si>
     <t>OKDdWOgz6mo</t>
   </si>
   <si>
     <t>Rangoli design with Colours Competitions With dots 11x6</t>
   </si>
   <si>
-    <t>https://youtu.be/AmNPprbICPQ</t>
-  </si>
-  <si>
     <t>https://i.ytimg.com/vi/3P3vt6M2His/hqdefault.jpg</t>
   </si>
   <si>
-    <t>AmNPprbICPQ</t>
-  </si>
-  <si>
-    <t>ABD AnyBody Can Draw</t>
-  </si>
-  <si>
     <t>https://youtu.be/3P3vt6M2His</t>
   </si>
   <si>
-    <t>How to make a Onam pookalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/9zKF8Dnf9sw/hqdefault.jpg</t>
-  </si>
-  <si>
     <t>3P3vt6M2His</t>
   </si>
   <si>
     <t>Easy Colourful Rangoli Design for Festivals with dots 13x7</t>
   </si>
   <si>
-    <t>https://youtu.be/9zKF8Dnf9sw</t>
-  </si>
-  <si>
-    <t>9zKF8Dnf9sw</t>
-  </si>
-  <si>
-    <t>tim thankachan</t>
-  </si>
-  <si>
-    <t>Making Onappookkalam</t>
-  </si>
-  <si>
     <t>https://youtu.be/RFA8wIdDQcc</t>
   </si>
   <si>
-    <t>https://i.ytimg.com/vi/wsozvVUwa70/hqdefault.jpg</t>
-  </si>
-  <si>
     <t>RFA8wIdDQcc</t>
   </si>
   <si>
-    <t>https://youtu.be/wsozvVUwa70</t>
-  </si>
-  <si>
-    <t>wsozvVUwa70</t>
-  </si>
-  <si>
-    <t>Deepa George</t>
-  </si>
-  <si>
-    <t>Make Flower Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/tp3wwLvQOTE/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/tp3wwLvQOTE</t>
-  </si>
-  <si>
-    <t>tp3wwLvQOTE</t>
-  </si>
-  <si>
-    <t>Cinecurry Lifestyle</t>
-  </si>
-  <si>
-    <t>flower rangoli designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/QMs-RW7DbmA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/QMs-RW7DbmA</t>
-  </si>
-  <si>
-    <t>QMs-RW7DbmA</t>
-  </si>
-  <si>
-    <t>Rangoli designs with colours // Arts and Crafts</t>
-  </si>
-  <si>
-    <t>Small Fish Kolam Designs With 11-1 Dots</t>
-  </si>
-  <si>
-    <t>https://youtu.be/voUw4jbAdvs</t>
-  </si>
-  <si>
-    <t>voUw4jbAdvs</t>
-  </si>
-  <si>
-    <t>simple fish rangoli kolam.11*6 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/_JQSmK6YNbw/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/_JQSmK6YNbw</t>
-  </si>
-  <si>
-    <t>JQSmK6YNbw</t>
-  </si>
-  <si>
-    <t>color rangoli</t>
-  </si>
-  <si>
-    <t>Sankranthi Simple Fish Kolam Designs With 15-8 middle</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/A6WMPqskr58/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/A6WMPqskr58</t>
-  </si>
-  <si>
-    <t>A6WMPqskr58</t>
-  </si>
-  <si>
-    <t>Dot kolam 9 to 9 straight with fish</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/akUWq8FYNPU/hqdefault.jpg?</t>
-  </si>
-  <si>
-    <t>https://youtu.be/akUWq8FYNPU</t>
-  </si>
-  <si>
-    <t>akUWq8FYNPU</t>
-  </si>
-  <si>
-    <t>Learn Kolam</t>
-  </si>
-  <si>
-    <t>easy kolam fish with dots 9 to 5</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Cie_WpzXwS4/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Cie_WpzXwS4</t>
-  </si>
-  <si>
-    <t>Cie_WpzXwS4</t>
-  </si>
-  <si>
-    <t>fish kolam designs with 5x3 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/TCp4EWQKxCE/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/TCp4EWQKxCE</t>
-  </si>
-  <si>
-    <t>TCp4EWQKxCE</t>
+    <t>Santa claus Rangoli with 21x14 straight Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Ooic3qT4PRA/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ooic3qT4PRA</t>
+  </si>
+  <si>
+    <t>Ooic3qT4PRA</t>
+  </si>
+  <si>
+    <t>Simple Christmas Rangoli Design with 5 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3l2Ltp-28HI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3l2Ltp-28HI</t>
+  </si>
+  <si>
+    <t>3l2Ltp-28HI</t>
+  </si>
+  <si>
+    <t>Daily Rangoli Designs</t>
+  </si>
+  <si>
+    <t>Christmas Rangoli Design with colours &amp; dots 10x8</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/xe5Wsr78wq4/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xe5Wsr78wq4</t>
+  </si>
+  <si>
+    <t>xe5Wsr78wq4</t>
+  </si>
+  <si>
+    <t>Christmas rangoli design</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kaJ97Hzz9J8</t>
+  </si>
+  <si>
+    <t>kaJ97Hzz9J8</t>
+  </si>
+  <si>
+    <t>Christmas Special Kolam | 13×7 interlaced dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/k_0ZGa4vcpc/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/k_0ZGa4vcpc</t>
+  </si>
+  <si>
+    <t>k_0ZGa4vcpc</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/UHRy0sqUM1I/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UHRy0sqUM1I</t>
+  </si>
+  <si>
+    <t>UHRy0sqUM1I</t>
+  </si>
+  <si>
+    <t>Christmas Rangoli Designs with 13x 7 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/i6jrBhddpaE/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/i6jrBhddpaE</t>
+  </si>
+  <si>
+    <t>i6jrBhddpaE</t>
+  </si>
+  <si>
+    <t>sangu kolam | 15*8 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/COi3WRP0TNs/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>Sangu kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>Rangoli New Design</t>
+  </si>
+  <si>
+    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>5X1 middle dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>Daily Rangoli</t>
+  </si>
+  <si>
+    <t>Festivals with dots 13x7</t>
+  </si>
+  <si>
+    <t>13x7 Easy Rainbow Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1Xmc9xb8A0s</t>
+  </si>
+  <si>
+    <t>1Xmc9xb8A0s</t>
   </si>
   <si>
     <t>17to17 dots rangoli for mahashivratri</t>
@@ -1707,166 +1867,91 @@
     <t>Madhavi Creations TV</t>
   </si>
   <si>
-    <t>sangu kolam | 15*8 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/COi3WRP0TNs/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>Sangu kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>Rangoli New Design</t>
-  </si>
-  <si>
-    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>5X1 middle dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>Daily Rangoli</t>
-  </si>
-  <si>
-    <t>Festivals with dots 13x7</t>
-  </si>
-  <si>
-    <t>13x7 Easy Rainbow Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>Santa claus Rangoli with 21x14 straight Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Ooic3qT4PRA/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Ooic3qT4PRA</t>
-  </si>
-  <si>
-    <t>Ooic3qT4PRA</t>
-  </si>
-  <si>
-    <t>Simple Christmas Rangoli Design with 5 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3l2Ltp-28HI/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3l2Ltp-28HI</t>
-  </si>
-  <si>
-    <t>3l2Ltp-28HI</t>
-  </si>
-  <si>
-    <t>Daily Rangoli Designs</t>
-  </si>
-  <si>
-    <t>Christmas Rangoli Design with colours &amp; dots 10x8</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/xe5Wsr78wq4/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xe5Wsr78wq4</t>
-  </si>
-  <si>
-    <t>xe5Wsr78wq4</t>
-  </si>
-  <si>
-    <t>Christmas rangoli design</t>
-  </si>
-  <si>
-    <t>https://youtu.be/kaJ97Hzz9J8</t>
-  </si>
-  <si>
-    <t>kaJ97Hzz9J8</t>
-  </si>
-  <si>
-    <t>Christmas Special Kolam | 13×7 interlaced dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/k_0ZGa4vcpc/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/k_0ZGa4vcpc</t>
-  </si>
-  <si>
-    <t>k_0ZGa4vcpc</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/UHRy0sqUM1I/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UHRy0sqUM1I</t>
-  </si>
-  <si>
-    <t>UHRy0sqUM1I</t>
-  </si>
-  <si>
-    <t>Christmas Rangoli Designs with 13x 7 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/i6jrBhddpaE/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/i6jrBhddpaE</t>
-  </si>
-  <si>
-    <t>i6jrBhddpaE</t>
+    <t>ganesh chaturthi special rangoli design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/q25QQrrBKls/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/q25QQrrBKls</t>
+  </si>
+  <si>
+    <t>q25QQrrBKls</t>
+  </si>
+  <si>
+    <t>latest rangoli</t>
+  </si>
+  <si>
+    <t>vinayagar chaturthi 8-8 straight dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/gRMuCeN_rjM/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gRMuCeN_rjM</t>
+  </si>
+  <si>
+    <t>gRMuCeN_rjM</t>
+  </si>
+  <si>
+    <t>Ganesha Chaturthi Festival Rangoli Design with colours and dots of 4x2</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ToFjkDZwCwo/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ToFjkDZwCwo</t>
+  </si>
+  <si>
+    <t>ToFjkDZwCwo</t>
+  </si>
+  <si>
+    <t>latest ganesh charthurthi kolam designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/5ZsinCtjG2k/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5ZsinCtjG2k</t>
+  </si>
+  <si>
+    <t>5ZsinCtjG2k</t>
+  </si>
+  <si>
+    <t>best ganesh rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/mm3Tfs-revQ/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mm3Tfs-revQ</t>
+  </si>
+  <si>
+    <t>mm3Tfs-revQ</t>
+  </si>
+  <si>
+    <t>s2kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/xE_RxmSwy4E/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xE_RxmSwy4E</t>
+  </si>
+  <si>
+    <t>xE_RxmSwy4E</t>
+  </si>
+  <si>
+    <t>Roopsy Creations</t>
+  </si>
+  <si>
+    <t>s2 kolam rangoli muggu</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fuqzN6iCKoI</t>
+  </si>
+  <si>
+    <t>fuqzN6iCKoI</t>
   </si>
   <si>
     <t>Beautiful Butterfly rangoli kolam |13*7 dots</t>
@@ -2052,91 +2137,67 @@
     <t>IZzZupyipNA</t>
   </si>
   <si>
-    <t>ganesh chaturthi special rangoli design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/q25QQrrBKls/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/q25QQrrBKls</t>
-  </si>
-  <si>
-    <t>q25QQrrBKls</t>
-  </si>
-  <si>
-    <t>latest rangoli</t>
-  </si>
-  <si>
-    <t>vinayagar chaturthi 8-8 straight dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/gRMuCeN_rjM/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/gRMuCeN_rjM</t>
-  </si>
-  <si>
-    <t>gRMuCeN_rjM</t>
-  </si>
-  <si>
-    <t>Ganesha Chaturthi Festival Rangoli Design with colours and dots of 4x2</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ToFjkDZwCwo/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ToFjkDZwCwo</t>
-  </si>
-  <si>
-    <t>ToFjkDZwCwo</t>
-  </si>
-  <si>
-    <t>latest ganesh charthurthi kolam designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/5ZsinCtjG2k/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5ZsinCtjG2k</t>
-  </si>
-  <si>
-    <t>5ZsinCtjG2k</t>
-  </si>
-  <si>
-    <t>best ganesh rangoli designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/mm3Tfs-revQ/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/mm3Tfs-revQ</t>
-  </si>
-  <si>
-    <t>mm3Tfs-revQ</t>
-  </si>
-  <si>
-    <t>s2kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/xE_RxmSwy4E/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xE_RxmSwy4E</t>
-  </si>
-  <si>
-    <t>xE_RxmSwy4E</t>
-  </si>
-  <si>
-    <t>Roopsy Creations</t>
-  </si>
-  <si>
-    <t>s2 kolam rangoli muggu</t>
-  </si>
-  <si>
-    <t>https://youtu.be/fuqzN6iCKoI</t>
-  </si>
-  <si>
-    <t>fuqzN6iCKoI</t>
+    <t>11 dots to 6 dots simple rose colour kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/EqJGDx1edcg/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EqJGDx1edcg</t>
+  </si>
+  <si>
+    <t>EqJGDx1edcg</t>
+  </si>
+  <si>
+    <t>Piriya's colour kolam</t>
+  </si>
+  <si>
+    <t>Simple rose kolam 7 dots to 7 dot</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ql1u1SKIyJ8/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ql1u1SKIyJ8</t>
+  </si>
+  <si>
+    <t>ql1u1SKIyJ8</t>
+  </si>
+  <si>
+    <t>rose flower muggulu</t>
+  </si>
+  <si>
+    <t>Unique rangoli designs with 17x9 middle</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/GIUzQiIK_mw/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GIUzQiIK_mw</t>
+  </si>
+  <si>
+    <t>GIUzQiIK_mw</t>
+  </si>
+  <si>
+    <t>Rose flower kolam with 15 to 8 interlaced</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3g-gLNRvVYM/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3g-gLNRvVYM</t>
+  </si>
+  <si>
+    <t>3g-gLNRvVYM</t>
+  </si>
+  <si>
+    <t>Latest Rangoli Art | 15-8 Middle</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZtyXKiTDOtc</t>
+  </si>
+  <si>
+    <t>ZtyXKiTDOtc</t>
   </si>
   <si>
     <t>latest lotus kolam designs with dots</t>
@@ -2212,69 +2273,6 @@
   </si>
   <si>
     <t>oV23wJ5DKqg</t>
-  </si>
-  <si>
-    <t>11 dots to 6 dots simple rose colour kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/EqJGDx1edcg/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EqJGDx1edcg</t>
-  </si>
-  <si>
-    <t>EqJGDx1edcg</t>
-  </si>
-  <si>
-    <t>Piriya's colour kolam</t>
-  </si>
-  <si>
-    <t>Simple rose kolam 7 dots to 7 dot</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ql1u1SKIyJ8/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ql1u1SKIyJ8</t>
-  </si>
-  <si>
-    <t>ql1u1SKIyJ8</t>
-  </si>
-  <si>
-    <t>rose flower muggulu</t>
-  </si>
-  <si>
-    <t>Unique rangoli designs with 17x9 middle</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/GIUzQiIK_mw/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GIUzQiIK_mw</t>
-  </si>
-  <si>
-    <t>GIUzQiIK_mw</t>
-  </si>
-  <si>
-    <t>Rose flower kolam with 15 to 8 interlaced</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3g-gLNRvVYM/hqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3g-gLNRvVYM</t>
-  </si>
-  <si>
-    <t>3g-gLNRvVYM</t>
-  </si>
-  <si>
-    <t>Latest Rangoli Art | 15-8 Middle</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZtyXKiTDOtc</t>
-  </si>
-  <si>
-    <t>ZtyXKiTDOtc</t>
   </si>
   <si>
     <t>Peacock kolam 15*8 interlaced dots</t>
@@ -2457,20 +2455,20 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2493,12 +2491,12 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2564,26 +2562,26 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2598,10 +2596,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2698,6 +2696,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -2763,264 +2765,264 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="9" ht="26.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" ht="26.25">
-      <c r="A9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="25" ht="26.25">
+      <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" ht="26.25">
-      <c r="A25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3069,122 +3071,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3220,85 +3222,85 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>185</v>
@@ -3306,59 +3308,59 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>413</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>104</v>
+      <c r="E8" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15"/>
-      <c r="B9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="18"/>
     </row>
   </sheetData>
@@ -3396,68 +3398,68 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="E3" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>190</v>
@@ -3465,70 +3467,70 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>440</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3567,139 +3569,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>459</v>
+        <v>448</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>476</v>
+        <v>453</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>484</v>
+        <v>458</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>491</v>
+        <v>463</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>493</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>496</v>
+        <v>468</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>501</v>
+        <v>473</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3738,122 +3740,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>505</v>
+        <v>478</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>509</v>
+        <v>481</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>514</v>
+        <v>486</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>518</v>
+        <v>490</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>522</v>
+        <v>495</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>527</v>
+        <v>499</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3889,85 +3891,85 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>450</v>
+        <v>503</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>460</v>
+        <v>507</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>465</v>
+        <v>512</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>472</v>
+        <v>516</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>176</v>
@@ -3975,16 +3977,16 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>481</v>
+        <v>520</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>176</v>
@@ -3992,16 +3994,16 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>489</v>
+        <v>524</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>176</v>
@@ -4040,34 +4042,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>586</v>
+        <v>527</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>136</v>
@@ -4075,33 +4077,33 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>590</v>
+        <v>531</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>595</v>
+        <v>536</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>176</v>
@@ -4109,67 +4111,67 @@
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>598</v>
+        <v>540</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>602</v>
+        <v>543</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>605</v>
+        <v>543</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>609</v>
+        <v>550</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>136</v>
@@ -4210,85 +4212,85 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>568</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>190</v>
@@ -4296,33 +4298,33 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>575</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>489</v>
+        <v>576</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>526</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>176</v>
@@ -4330,25 +4332,25 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4378,6 +4380,370 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="36.71"/>
+    <col customWidth="1" min="2" max="2" width="54.0"/>
+    <col customWidth="1" min="3" max="3" width="35.0"/>
+    <col customWidth="1" min="4" max="4" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5">
+      <c r="A2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="E2"/>
+    <hyperlink r:id="rId4" ref="B3"/>
+    <hyperlink r:id="rId5" ref="C3"/>
+    <hyperlink r:id="rId6" ref="B4"/>
+    <hyperlink r:id="rId7" ref="C4"/>
+    <hyperlink r:id="rId8" ref="E4"/>
+    <hyperlink r:id="rId9" ref="B5"/>
+    <hyperlink r:id="rId10" ref="C5"/>
+    <hyperlink r:id="rId11" ref="B6"/>
+    <hyperlink r:id="rId12" ref="C6"/>
+    <hyperlink r:id="rId13" ref="B7"/>
+    <hyperlink r:id="rId14" ref="C7"/>
+    <hyperlink r:id="rId15" ref="B8"/>
+    <hyperlink r:id="rId16" ref="C8"/>
+    <hyperlink r:id="rId17" ref="B9"/>
+    <hyperlink r:id="rId18" ref="C9"/>
+    <hyperlink r:id="rId19" ref="B10"/>
+    <hyperlink r:id="rId20" ref="C10"/>
+    <hyperlink r:id="rId21" ref="B11"/>
+    <hyperlink r:id="rId22" ref="C11"/>
+    <hyperlink r:id="rId23" ref="B12"/>
+    <hyperlink r:id="rId24" ref="C12"/>
+    <hyperlink r:id="rId25" ref="B13"/>
+    <hyperlink r:id="rId26" ref="C13"/>
+    <hyperlink r:id="rId27" ref="B14"/>
+    <hyperlink r:id="rId28" ref="C14"/>
+    <hyperlink r:id="rId29" ref="B15"/>
+    <hyperlink r:id="rId30" ref="C15"/>
+    <hyperlink r:id="rId31" ref="B16"/>
+    <hyperlink r:id="rId32" ref="C16"/>
+    <hyperlink r:id="rId33" ref="B17"/>
+    <hyperlink r:id="rId34" ref="C17"/>
+    <hyperlink r:id="rId35" ref="B18"/>
+    <hyperlink r:id="rId36" ref="C18"/>
+    <hyperlink r:id="rId37" ref="E18"/>
+  </hyperlinks>
+  <drawing r:id="rId38"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="35.71"/>
     <col customWidth="1" min="2" max="2" width="43.14"/>
     <col customWidth="1" min="3" max="3" width="32.29"/>
@@ -4386,122 +4752,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>531</v>
+        <v>581</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>584</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>535</v>
+        <v>586</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>588</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>536</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>540</v>
+        <v>590</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>593</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>544</v>
+        <v>594</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>549</v>
+        <v>599</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>554</v>
+        <v>604</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>555</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4523,177 +4889,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="34.29"/>
-    <col customWidth="1" min="2" max="2" width="43.43"/>
-    <col customWidth="1" min="3" max="3" width="28.57"/>
-    <col customWidth="1" min="4" max="4" width="20.57"/>
-    <col customWidth="1" min="5" max="5" width="30.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>690</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="C3"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="C4"/>
-    <hyperlink r:id="rId7" ref="B5"/>
-    <hyperlink r:id="rId8" ref="C5"/>
-    <hyperlink r:id="rId9" ref="B6"/>
-    <hyperlink r:id="rId10" ref="C6"/>
-    <hyperlink r:id="rId11" ref="B7"/>
-    <hyperlink r:id="rId12" ref="C7"/>
-    <hyperlink r:id="rId13" ref="B8"/>
-    <hyperlink r:id="rId14" ref="C8"/>
-  </hyperlinks>
-  <drawing r:id="rId15"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -4709,33 +4904,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -4743,16 +4938,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -4760,16 +4955,16 @@
       </c>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -4777,84 +4972,84 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
+      <c r="E6" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -4862,16 +5057,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -4879,16 +5074,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -4896,20 +5091,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4957,146 +5152,147 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.29"/>
-    <col customWidth="1" min="2" max="2" width="41.71"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="23.57"/>
+    <col customWidth="1" min="1" max="1" width="34.29"/>
+    <col customWidth="1" min="2" max="2" width="43.43"/>
+    <col customWidth="1" min="3" max="3" width="28.57"/>
+    <col customWidth="1" min="4" max="4" width="20.57"/>
+    <col customWidth="1" min="5" max="5" width="30.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>510</v>
+      <c r="D3" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="B4" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>620</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>621</v>
+      </c>
       <c r="E4" s="15" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="B5" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>624</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>625</v>
+      </c>
       <c r="E5" s="15" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="21" t="s">
         <v>628</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>629</v>
+      </c>
       <c r="E6" s="15" t="s">
-        <v>629</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>633</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>185</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>634</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5127,164 +5323,146 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.71"/>
-    <col customWidth="1" min="2" max="2" width="42.43"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
-    <col customWidth="1" min="5" max="5" width="27.57"/>
+    <col customWidth="1" min="1" max="1" width="42.29"/>
+    <col customWidth="1" min="2" max="2" width="41.71"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
+    <col customWidth="1" min="4" max="4" width="23.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>641</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>176</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>646</v>
+      <c r="E3" s="18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>510</v>
+      <c r="E4" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>653</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>510</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>657</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>661</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>662</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>666</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>131</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5481,8 @@
     <hyperlink r:id="rId12" ref="C7"/>
     <hyperlink r:id="rId13" ref="B8"/>
     <hyperlink r:id="rId14" ref="C8"/>
-    <hyperlink r:id="rId15" ref="B9"/>
-    <hyperlink r:id="rId16" ref="C9"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5317,164 +5493,164 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.43"/>
-    <col customWidth="1" min="2" max="2" width="42.57"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="23.14"/>
-    <col customWidth="1" min="5" max="5" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="44.71"/>
+    <col customWidth="1" min="2" max="2" width="42.43"/>
+    <col customWidth="1" min="3" max="3" width="28.14"/>
+    <col customWidth="1" min="4" max="4" width="22.71"/>
+    <col customWidth="1" min="5" max="5" width="27.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>728</v>
+        <v>666</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>729</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>732</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>729</v>
+        <v>670</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>295</v>
+        <v>675</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>738</v>
+        <v>678</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>84</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>136</v>
+        <v>682</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>742</v>
+        <v>686</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>207</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>432</v>
+        <v>691</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>694</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>745</v>
+        <v>695</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5507,147 +5683,164 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.0"/>
-    <col customWidth="1" min="2" max="2" width="42.86"/>
+    <col customWidth="1" min="1" max="1" width="39.43"/>
+    <col customWidth="1" min="2" max="2" width="42.57"/>
     <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="21.86"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col customWidth="1" min="4" max="4" width="23.14"/>
+    <col customWidth="1" min="5" max="5" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>703</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>708</v>
+      <c r="E3" s="18" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>84</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>717</v>
+        <v>302</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>721</v>
+        <v>713</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>716</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>708</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>724</v>
+        <v>428</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5666,8 +5859,10 @@
     <hyperlink r:id="rId12" ref="C7"/>
     <hyperlink r:id="rId13" ref="B8"/>
     <hyperlink r:id="rId14" ref="C8"/>
+    <hyperlink r:id="rId15" ref="B9"/>
+    <hyperlink r:id="rId16" ref="C9"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -5678,146 +5873,147 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="42.86"/>
-    <col customWidth="1" min="3" max="3" width="27.71"/>
-    <col customWidth="1" min="4" max="4" width="22.86"/>
-    <col customWidth="1" min="5" max="5" width="21.0"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="2" max="2" width="42.86"/>
+    <col customWidth="1" min="3" max="3" width="30.0"/>
+    <col customWidth="1" min="4" max="4" width="21.86"/>
+    <col customWidth="1" min="5" max="5" width="20.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>749</v>
+        <v>720</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>750</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>399</v>
+        <v>724</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>104</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>755</v>
+        <v>729</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>756</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>758</v>
+        <v>295</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>762</v>
+        <v>734</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>763</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>767</v>
+        <v>738</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>104</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>225</v>
+        <v>742</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5848,6 +6044,176 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="42.86"/>
+    <col customWidth="1" min="3" max="3" width="27.71"/>
+    <col customWidth="1" min="4" max="4" width="22.86"/>
+    <col customWidth="1" min="5" max="5" width="21.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="C3"/>
+    <hyperlink r:id="rId5" ref="B4"/>
+    <hyperlink r:id="rId6" ref="C4"/>
+    <hyperlink r:id="rId7" ref="B5"/>
+    <hyperlink r:id="rId8" ref="C5"/>
+    <hyperlink r:id="rId9" ref="B6"/>
+    <hyperlink r:id="rId10" ref="C6"/>
+    <hyperlink r:id="rId11" ref="B7"/>
+    <hyperlink r:id="rId12" ref="C7"/>
+    <hyperlink r:id="rId13" ref="B8"/>
+    <hyperlink r:id="rId14" ref="C8"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="49.14"/>
     <col customWidth="1" min="2" max="2" width="41.71"/>
     <col customWidth="1" min="3" max="3" width="28.0"/>
@@ -5855,122 +6221,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>777</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>782</v>
-      </c>
       <c r="E4" s="18" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="15" t="s">
         <v>786</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>791</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="22" t="s">
         <v>796</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -6007,186 +6373,186 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
+      <c r="A2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
+      <c r="A3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
+      <c r="A5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
+      <c r="A6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
+      <c r="E9" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
+      <c r="E10" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -6239,190 +6605,190 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>272</v>
+      <c r="C9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>276</v>
+      <c r="A10" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>281</v>
+      <c r="A11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -6475,194 +6841,194 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>206</v>
+      <c r="A2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>209</v>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>213</v>
+      <c r="A4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>217</v>
+      <c r="A5" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>221</v>
+      <c r="A6" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>225</v>
+      <c r="A7" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>228</v>
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>232</v>
+      <c r="A9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="A10" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6714,33 +7080,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -6751,13 +7117,13 @@
       <c r="A3" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -6768,13 +7134,13 @@
       <c r="A4" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -6785,13 +7151,13 @@
       <c r="A5" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -6802,13 +7168,13 @@
       <c r="A6" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -6819,30 +7185,30 @@
       <c r="A7" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -6884,34 +7250,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>185</v>
@@ -6919,16 +7285,16 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>131</v>
@@ -6936,15 +7302,15 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>314</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -6955,31 +7321,31 @@
       <c r="A5" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>318</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="E5" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>323</v>
+      <c r="C6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>158</v>
@@ -6987,16 +7353,16 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>327</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>158</v>
@@ -7004,36 +7370,36 @@
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>331</v>
+        <v>347</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>335</v>
+      <c r="A9" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -7074,85 +7440,85 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>131</v>
@@ -7160,33 +7526,33 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>136</v>
@@ -7225,139 +7591,139 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>340</v>
+        <v>313</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>344</v>
+        <v>329</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>349</v>
+        <v>336</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>354</v>
+        <v>341</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>356</v>
+        <v>345</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="E8" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/ice-ta-rangoli.xlsx
+++ b/sheets/ice-ta-rangoli.xlsx
@@ -53,6 +53,138 @@
     <t>source</t>
   </si>
   <si>
+    <t>10 dots - bhogi kundalu designs -</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ter_4S1IT74/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ter_4S1IT74&amp;index=13&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
+  </si>
+  <si>
+    <t>ter_4S1IT74</t>
+  </si>
+  <si>
+    <t>S2 Kolam</t>
+  </si>
+  <si>
+    <t>pongal pot kolam with 15 dots.</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/1C_XHct1RCI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1C_XHct1RCI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=12</t>
+  </si>
+  <si>
+    <t>1C_XHct1RCI</t>
+  </si>
+  <si>
+    <t>bhogi kundalu muggulu</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/sru-rG2ldK4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sru-rG2ldK4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=11</t>
+  </si>
+  <si>
+    <t>sru-rG2ldK4</t>
+  </si>
+  <si>
+    <t>Pongal pot rangoli design with 12 dots.</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/uOdaCSix7AI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uOdaCSix7AI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=10</t>
+  </si>
+  <si>
+    <t>uOdaCSix7AI</t>
+  </si>
+  <si>
+    <t>easy bhogi kundalu designs</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/Gzi_kZspV0M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gzi_kZspV0M&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=6</t>
+  </si>
+  <si>
+    <t>Gzi_kZspV0M</t>
+  </si>
+  <si>
+    <t>kundalu muggulu with 13 dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ZOB9vicTe-Y/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZOB9vicTe-Y&amp;index=4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
+  </si>
+  <si>
+    <t>ZOB9vicTe-Y</t>
+  </si>
+  <si>
+    <t>Pongal Bhogi Pot With Colours</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/KyZpZj67QZU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KyZpZj67QZU&amp;list=PLlzpegbwatcN4wxBMPibctD-PPXfYd8BX</t>
+  </si>
+  <si>
+    <t>KyZpZj67QZU</t>
+  </si>
+  <si>
+    <t>Rangoli By Maya</t>
+  </si>
+  <si>
+    <t>pongal kolam sankranti rangoli</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/2cKgclw3Rv8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2cKgclw3Rv8</t>
+  </si>
+  <si>
+    <t>2cKgclw3Rv8</t>
+  </si>
+  <si>
+    <t>muggulu rangoli</t>
+  </si>
+  <si>
+    <t>Bhogi Kundala Muggu With Dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/ndnnPg4dxBQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ndnnPg4dxBQ</t>
+  </si>
+  <si>
+    <t>ndnnPg4dxBQ</t>
+  </si>
+  <si>
+    <t>Fashion World</t>
+  </si>
+  <si>
+    <t>Muggulu With 17 x 3 x 3 Straight Dots</t>
+  </si>
+  <si>
+    <t>https://img.youtube.com/vi/xfXpREzp0p8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xfXpREzp0p8</t>
+  </si>
+  <si>
+    <t>xfXpREzp0p8</t>
+  </si>
+  <si>
     <t>muggulu for new year</t>
   </si>
   <si>
@@ -182,138 +314,6 @@
     <t>DdjG57m-xh4</t>
   </si>
   <si>
-    <t>muggulu rangoli</t>
-  </si>
-  <si>
-    <t>10 dots - bhogi kundalu designs -</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ter_4S1IT74/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ter_4S1IT74&amp;index=13&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
-  </si>
-  <si>
-    <t>ter_4S1IT74</t>
-  </si>
-  <si>
-    <t>S2 Kolam</t>
-  </si>
-  <si>
-    <t>pongal pot kolam with 15 dots.</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/1C_XHct1RCI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1C_XHct1RCI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=12</t>
-  </si>
-  <si>
-    <t>1C_XHct1RCI</t>
-  </si>
-  <si>
-    <t>bhogi kundalu muggulu</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/sru-rG2ldK4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sru-rG2ldK4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=11</t>
-  </si>
-  <si>
-    <t>sru-rG2ldK4</t>
-  </si>
-  <si>
-    <t>Pongal pot rangoli design with 12 dots.</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/uOdaCSix7AI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uOdaCSix7AI&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=10</t>
-  </si>
-  <si>
-    <t>uOdaCSix7AI</t>
-  </si>
-  <si>
-    <t>easy bhogi kundalu designs</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/Gzi_kZspV0M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gzi_kZspV0M&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz&amp;index=6</t>
-  </si>
-  <si>
-    <t>Gzi_kZspV0M</t>
-  </si>
-  <si>
-    <t>kundalu muggulu with 13 dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ZOB9vicTe-Y/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZOB9vicTe-Y&amp;index=4&amp;list=PLKRWLFbODx6x7i2ShWMHPQ9DSoosA1-dz</t>
-  </si>
-  <si>
-    <t>ZOB9vicTe-Y</t>
-  </si>
-  <si>
-    <t>Pongal Bhogi Pot With Colours</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/KyZpZj67QZU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KyZpZj67QZU&amp;list=PLlzpegbwatcN4wxBMPibctD-PPXfYd8BX</t>
-  </si>
-  <si>
-    <t>KyZpZj67QZU</t>
-  </si>
-  <si>
-    <t>Rangoli By Maya</t>
-  </si>
-  <si>
-    <t>pongal kolam sankranti rangoli</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/2cKgclw3Rv8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2cKgclw3Rv8</t>
-  </si>
-  <si>
-    <t>2cKgclw3Rv8</t>
-  </si>
-  <si>
-    <t>Bhogi Kundala Muggu With Dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/ndnnPg4dxBQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ndnnPg4dxBQ</t>
-  </si>
-  <si>
-    <t>ndnnPg4dxBQ</t>
-  </si>
-  <si>
-    <t>Fashion World</t>
-  </si>
-  <si>
-    <t>Muggulu With 17 x 3 x 3 Straight Dots</t>
-  </si>
-  <si>
-    <t>https://img.youtube.com/vi/xfXpREzp0p8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xfXpREzp0p8</t>
-  </si>
-  <si>
-    <t>xfXpREzp0p8</t>
-  </si>
-  <si>
     <t>pulli kolam | 9 dots sikku kolam</t>
   </si>
   <si>
@@ -818,1048 +818,1135 @@
     <t>easy rangoli designs</t>
   </si>
   <si>
+    <t>6wmY90tkzuI</t>
+  </si>
+  <si>
+    <t>Latest simple flower rangoli designs | 7 to 4 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/D7UO9z9KDFg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/D7UO9z9KDFg</t>
+  </si>
+  <si>
+    <t>D7UO9z9KDFg</t>
+  </si>
+  <si>
+    <t>simple rangol</t>
+  </si>
+  <si>
+    <t>Rose flower kolam designs with 7x4 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/PKUNQSJjGkw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PKUNQSJjGkw</t>
+  </si>
+  <si>
+    <t>PKUNQSJjGkw</t>
+  </si>
+  <si>
+    <t>Latest freehand kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/EaB8SsrZZ0s/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EaB8SsrZZ0s</t>
+  </si>
+  <si>
+    <t>EaB8SsrZZ0s</t>
+  </si>
+  <si>
+    <t>Beautiful and unique rangoli design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/y44KK2ugc60/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/y44KK2ugc60</t>
+  </si>
+  <si>
+    <t>y44KK2ugc60</t>
+  </si>
+  <si>
+    <t>Poonam Borkar</t>
+  </si>
+  <si>
+    <t>Freehand Rangoli Designs with colours</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/2ccsotwQABA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2ccsotwQABA</t>
+  </si>
+  <si>
+    <t>2ccsotwQABA</t>
+  </si>
+  <si>
+    <t>Shital Daga</t>
+  </si>
+  <si>
+    <t>Simple freehand Rangoli design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/vYmC3Y9I-hg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vYmC3Y9I-hg</t>
+  </si>
+  <si>
+    <t>vYmC3Y9I-hg</t>
+  </si>
+  <si>
+    <t>Easy freehand Muggulu design</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/0ygWtAJRTuA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0ygWtAJRTuA</t>
+  </si>
+  <si>
+    <t>0ygWtAJRTuA</t>
+  </si>
+  <si>
+    <t>Quick freehand Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/z4R9Uw7dVfg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/z4R9Uw7dVfg</t>
+  </si>
+  <si>
+    <t>z4R9Uw7dVfg</t>
+  </si>
+  <si>
+    <t>Freehand rangoli designs with colours</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/BY3roEOUKNA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/NhXUCsJm604/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BY3roEOUKNA</t>
+  </si>
+  <si>
+    <t>BY3roEOUKNA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NhXUCsJm604</t>
+  </si>
+  <si>
+    <t>NhXUCsJm604</t>
+  </si>
+  <si>
+    <t>Rangoli design, colourful and beautiful</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/IBnFvSY1i8U/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IBnFvSY1i8U</t>
+  </si>
+  <si>
+    <t>IBnFvSY1i8U</t>
+  </si>
+  <si>
+    <t>DEEPIKA RANGOLI AND ART</t>
+  </si>
+  <si>
+    <t>Beautiful Rainbow Rangoli Designs With Colours</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/iDWs8nGcXEk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iDWs8nGcXEk</t>
+  </si>
+  <si>
+    <t>iDWs8nGcXEk</t>
+  </si>
+  <si>
+    <t>2 easy small multicolored rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/hiLfJsx9zQU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hiLfJsx9zQU</t>
+  </si>
+  <si>
+    <t>hiLfJsx9zQU</t>
+  </si>
+  <si>
+    <t>easy rangoli for beginners</t>
+  </si>
+  <si>
+    <t>Innovative Daily Rangoli Designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/NkRZlY9OTLg/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NkRZlY9OTLg</t>
+  </si>
+  <si>
+    <t>NkRZlY9OTLg</t>
+  </si>
+  <si>
+    <t>Shital Mahajan</t>
+  </si>
+  <si>
+    <t>Innovative Rangoli Designs Using CD and Bangles</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/7IVYpHMBfbE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7IVYpHMBfbE</t>
+  </si>
+  <si>
+    <t>7IVYpHMBfbE</t>
+  </si>
+  <si>
+    <t>Birds kolam designs with 5x3 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZksVIwbFU8A/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZksVIwbFU8A</t>
+  </si>
+  <si>
+    <t>ZksVIwbFU8A&amp;t</t>
+  </si>
+  <si>
+    <t>beautiful peacock kolam designs with 7x4 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/yAeBRQErUOQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yAeBRQErUOQ</t>
+  </si>
+  <si>
+    <t>yAeBRQErUOQ</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/kbazjyy7nW4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kbazjyy7nW4</t>
+  </si>
+  <si>
+    <t>kbazjyy7nW4</t>
+  </si>
+  <si>
+    <t>kolam with 7 dots and 6 birds</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ULRQVTxKNVI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ULRQVTxKNVI</t>
+  </si>
+  <si>
+    <t>ULRQVTxKNVI</t>
+  </si>
+  <si>
+    <t>Bird Rangoli Kolam Designs with 6x4 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/pu6ZynK1Uiw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pu6ZynK1Uiw</t>
+  </si>
+  <si>
+    <t>pu6ZynK1Uiw</t>
+  </si>
+  <si>
+    <t>4 to 4 dots birds kolam designs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EpqHe9lApVY</t>
+  </si>
+  <si>
+    <t>EpqHe9lApVY</t>
+  </si>
+  <si>
+    <t>modern kolam with dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Kcjwl39D6Ks/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Kcjwl39D6Ks</t>
+  </si>
+  <si>
+    <t>Kcjwl39D6Ks</t>
+  </si>
+  <si>
+    <t>Flower Rangoli # Peacock Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Y9elOLXRHn8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Y9elOLXRHn8</t>
+  </si>
+  <si>
+    <t>Y9elOLXRHn8</t>
+  </si>
+  <si>
+    <t>Rangoli Arts &amp; Salad Decorations</t>
+  </si>
+  <si>
+    <t>Onam Pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/OXm5BcxnjnI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OXm5BcxnjnI</t>
+  </si>
+  <si>
+    <t>OXm5BcxnjnI</t>
+  </si>
+  <si>
+    <t>Friday Magazine</t>
+  </si>
+  <si>
+    <t>simple onam atha pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/AmNPprbICPQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AmNPprbICPQ</t>
+  </si>
+  <si>
+    <t>AmNPprbICPQ</t>
+  </si>
+  <si>
+    <t>ABD AnyBody Can Draw</t>
+  </si>
+  <si>
+    <t>How to make a Onam pookalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/9zKF8Dnf9sw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9zKF8Dnf9sw</t>
+  </si>
+  <si>
+    <t>9zKF8Dnf9sw</t>
+  </si>
+  <si>
+    <t>tim thankachan</t>
+  </si>
+  <si>
+    <t>Making Onappookkalam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/wsozvVUwa70/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wsozvVUwa70</t>
+  </si>
+  <si>
+    <t>wsozvVUwa70</t>
+  </si>
+  <si>
+    <t>Deepa George</t>
+  </si>
+  <si>
+    <t>Make Flower Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/tp3wwLvQOTE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tp3wwLvQOTE</t>
+  </si>
+  <si>
+    <t>tp3wwLvQOTE</t>
+  </si>
+  <si>
+    <t>Cinecurry Lifestyle</t>
+  </si>
+  <si>
+    <t>flower rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/QMs-RW7DbmA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QMs-RW7DbmA</t>
+  </si>
+  <si>
+    <t>QMs-RW7DbmA</t>
+  </si>
+  <si>
+    <t>Rangoli designs with colours // Arts and Crafts</t>
+  </si>
+  <si>
+    <t>Beautiful flower kolam with colors</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/IGTojrViJho/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IGTojrViJho</t>
+  </si>
+  <si>
+    <t>IGTojrViJho</t>
+  </si>
+  <si>
+    <t>7x4 dots flower kolam designs with colors</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/cze3to9EfV4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cze3to9EfV4</t>
+  </si>
+  <si>
+    <t>cze3to9EfV4</t>
+  </si>
+  <si>
+    <t>Beautiful rangoli design with 7X4 middle dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/pXs5EidCUhM/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pXs5EidCUhM</t>
+  </si>
+  <si>
+    <t>pXs5EidCUhM</t>
+  </si>
+  <si>
+    <t>rose flower kolam with 13x7 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/LHf8IoR7Kuo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LHf8IoR7Kuo</t>
+  </si>
+  <si>
+    <t>LHf8IoR7Kuo</t>
+  </si>
+  <si>
+    <t>Sankranthi Flowers Kolam Designs With 13-7 middle</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/71YTUzGFvd4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/71YTUzGFvd4</t>
+  </si>
+  <si>
+    <t>71YTUzGFvd4</t>
+  </si>
+  <si>
+    <t>flower kolam designs with 5 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/17rX5E2VAck/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/17rX5E2VAck</t>
+  </si>
+  <si>
+    <t>17rX5E2VAck</t>
+  </si>
+  <si>
+    <t>simple rangoli festival arts with dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/4f3KCa_cDjc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4f3KCa_cDjc</t>
+  </si>
+  <si>
+    <t>4f3KCa_cDjc</t>
+  </si>
+  <si>
+    <t>Small Fish Kolam Designs With 11-1 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/voUw4jbAdvs/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/voUw4jbAdvs</t>
+  </si>
+  <si>
+    <t>voUw4jbAdvs</t>
+  </si>
+  <si>
+    <t>simple fish rangoli kolam.11*6 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/_JQSmK6YNbw/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_JQSmK6YNbw</t>
+  </si>
+  <si>
+    <t>JQSmK6YNbw</t>
+  </si>
+  <si>
+    <t>color rangoli</t>
+  </si>
+  <si>
+    <t>Sankranthi Simple Fish Kolam Designs With 15-8 middle</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/A6WMPqskr58/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/A6WMPqskr58</t>
+  </si>
+  <si>
+    <t>A6WMPqskr58</t>
+  </si>
+  <si>
+    <t>Dot kolam 9 to 9 straight with fish</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/akUWq8FYNPU/mqdefault.jpg?</t>
+  </si>
+  <si>
+    <t>https://youtu.be/akUWq8FYNPU</t>
+  </si>
+  <si>
+    <t>akUWq8FYNPU</t>
+  </si>
+  <si>
+    <t>Learn Kolam</t>
+  </si>
+  <si>
+    <t>easy kolam fish with dots 9 to 5</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Cie_WpzXwS4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cie_WpzXwS4</t>
+  </si>
+  <si>
+    <t>Cie_WpzXwS4</t>
+  </si>
+  <si>
+    <t>fish kolam designs with 5x3 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/TCp4EWQKxCE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/TCp4EWQKxCE</t>
+  </si>
+  <si>
+    <t>TCp4EWQKxCE</t>
+  </si>
+  <si>
+    <t>Easy Color Rangoli Design For HOLI Festival</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1gPPU1vj304/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1gPPU1vj304</t>
+  </si>
+  <si>
+    <t>1gPPU1vj304</t>
+  </si>
+  <si>
+    <t>Pakka Local</t>
+  </si>
+  <si>
+    <t>Colorful Holi Special Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/aMIOjhjnUok/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aMIOjhjnUok</t>
+  </si>
+  <si>
+    <t>aMIOjhjnUok</t>
+  </si>
+  <si>
+    <t>Rangoli &amp; Art</t>
+  </si>
+  <si>
+    <t>simple kolam designs with 7x3 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/G64iGZ7PIU4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G64iGZ7PIU4</t>
+  </si>
+  <si>
+    <t>G64iGZ7PIU4</t>
+  </si>
+  <si>
+    <t>Rangoli Design with colours for fesitvals and competitions with dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/OKDdWOgz6mo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OKDdWOgz6mo</t>
+  </si>
+  <si>
+    <t>OKDdWOgz6mo</t>
+  </si>
+  <si>
+    <t>Rangoli design with Colours Competitions With dots 11x6</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3P3vt6M2His/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3P3vt6M2His</t>
+  </si>
+  <si>
+    <t>3P3vt6M2His</t>
+  </si>
+  <si>
+    <t>Easy Colourful Rangoli Design for Festivals with dots 13x7</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/RFA8wIdDQcc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RFA8wIdDQcc</t>
+  </si>
+  <si>
+    <t>RFA8wIdDQcc</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Pulli Kolam | Dotted Kolam</t>
+  </si>
+  <si>
+    <t>pulli</t>
+  </si>
+  <si>
+    <t>Kolam, Muggulu, Rangoli, With colors, With dots</t>
+  </si>
+  <si>
+    <t>New Year Kolam</t>
+  </si>
+  <si>
+    <t>newyear</t>
+  </si>
+  <si>
+    <t>Pongal Kolam | Sankranthi Muggulu</t>
+  </si>
+  <si>
+    <t>pongal</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Diwali Rangoli | Deepavali Kolam</t>
+  </si>
+  <si>
+    <t>diwali</t>
+  </si>
+  <si>
+    <t>Margazhi Kolam</t>
+  </si>
+  <si>
+    <t>margazhi</t>
+  </si>
+  <si>
+    <t>Flower Design Kolam</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>Freehand Rangoli | Kolam without dots</t>
+  </si>
+  <si>
+    <t>freehand</t>
+  </si>
+  <si>
+    <t>Freehand Color Rangoli</t>
+  </si>
+  <si>
+    <t>freecolor</t>
+  </si>
+  <si>
+    <t>Birds Kolam</t>
+  </si>
+  <si>
+    <t>birds</t>
+  </si>
+  <si>
+    <t>Kolam with Flowers</t>
+  </si>
+  <si>
+    <t>withflowers</t>
+  </si>
+  <si>
+    <t>Onam Rangoli</t>
+  </si>
+  <si>
+    <t>onam</t>
+  </si>
+  <si>
+    <t>Fish Kolam</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>Holi Rangoli</t>
+  </si>
+  <si>
+    <t>holi</t>
+  </si>
+  <si>
+    <t>Christmas Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/kaJ97Hzz9J8/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>Sangu Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>sangu</t>
+  </si>
+  <si>
+    <t>Maha Shivaratri Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/C5pKc_8eGpQ/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>shiva</t>
+  </si>
+  <si>
+    <t>Vinayagar Chaturthi Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/fuqzN6iCKoI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>vinayagar</t>
+  </si>
+  <si>
+    <t>Butterfly Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/9JQVTQdqXS0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>karthigai Deepam Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/sPqNRUmLHi0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>karthigai</t>
+  </si>
+  <si>
+    <t>Rose Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZtyXKiTDOtc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>Lotus Kolam</t>
+  </si>
+  <si>
+    <t>lotus</t>
+  </si>
+  <si>
+    <t>Peacock Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/A1dWDe6vLzo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>Other Festival Kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/XmnZ2Kj6dvU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama Navami, Saraswathi Pooja, Chitra Pournami, Aadi Perukku, Tamil new Year </t>
+  </si>
+  <si>
+    <t>Santa claus Rangoli with 21x14 straight Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Ooic3qT4PRA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Ooic3qT4PRA</t>
+  </si>
+  <si>
+    <t>Ooic3qT4PRA</t>
+  </si>
+  <si>
+    <t>Simple Christmas Rangoli Design with 5 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/3l2Ltp-28HI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3l2Ltp-28HI</t>
+  </si>
+  <si>
+    <t>3l2Ltp-28HI</t>
+  </si>
+  <si>
+    <t>Daily Rangoli Designs</t>
+  </si>
+  <si>
+    <t>Christmas Rangoli Design with colours &amp; dots 10x8</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/xe5Wsr78wq4/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xe5Wsr78wq4</t>
+  </si>
+  <si>
+    <t>xe5Wsr78wq4</t>
+  </si>
+  <si>
+    <t>Christmas rangoli design</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kaJ97Hzz9J8</t>
+  </si>
+  <si>
+    <t>kaJ97Hzz9J8</t>
+  </si>
+  <si>
+    <t>Christmas Special Kolam | 13×7 interlaced dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/k_0ZGa4vcpc/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/k_0ZGa4vcpc</t>
+  </si>
+  <si>
+    <t>k_0ZGa4vcpc</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/UHRy0sqUM1I/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UHRy0sqUM1I</t>
+  </si>
+  <si>
+    <t>UHRy0sqUM1I</t>
+  </si>
+  <si>
+    <t>Christmas Rangoli Designs with 13x 7 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/i6jrBhddpaE/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/i6jrBhddpaE</t>
+  </si>
+  <si>
+    <t>i6jrBhddpaE</t>
+  </si>
+  <si>
+    <t>sangu kolam | 15*8 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/COi3WRP0TNs/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>COi3WRP0TNs</t>
+  </si>
+  <si>
+    <t>Sangu kolam</t>
+  </si>
+  <si>
+    <t>https://youtu.be/U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>U-G6rBKIM_k</t>
+  </si>
+  <si>
+    <t>Rangoli New Design</t>
+  </si>
+  <si>
+    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>ZcmwXlw2MOk</t>
+  </si>
+  <si>
+    <t>5X1 middle dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>L5LEiGaeu1I</t>
+  </si>
+  <si>
+    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>b5bu_o-zy3k</t>
+  </si>
+  <si>
+    <t>Daily Rangoli</t>
+  </si>
+  <si>
+    <t>Festivals with dots 13x7</t>
+  </si>
+  <si>
+    <t>13x7 Easy Rainbow Rangoli</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1Xmc9xb8A0s</t>
+  </si>
+  <si>
+    <t>1Xmc9xb8A0s</t>
+  </si>
+  <si>
+    <t>17to17 dots rangoli for mahashivratri</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C5pKc_8eGpQ</t>
+  </si>
+  <si>
+    <t>C5pKc_8eGpQ</t>
+  </si>
+  <si>
+    <t>Hemlata's Rangoli Designs</t>
+  </si>
+  <si>
+    <t>Special Shiva ratri Muggulu</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/GSRd1_aRxHo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GSRd1_aRxHo</t>
+  </si>
+  <si>
+    <t>GSRd1_aRxHo</t>
+  </si>
+  <si>
+    <t>Lovely Kolam</t>
+  </si>
+  <si>
+    <t>dots rangoli designs</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/68829aQjCs0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/68829aQjCs0</t>
+  </si>
+  <si>
+    <t>68829aQjCs0</t>
+  </si>
+  <si>
+    <t>Easy 11x11 dots Shiva Lingam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Cw1w-p2foSU/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cw1w-p2foSU</t>
+  </si>
+  <si>
+    <t>Cw1w-p2foSU</t>
+  </si>
+  <si>
+    <t>Pedda Balashiksha</t>
+  </si>
+  <si>
+    <t>Shiva muggulu | kolam</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/-e2PxHvAUd0/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-e2PxHvAUd0</t>
+  </si>
+  <si>
+    <t>e2PxHvAUd0</t>
+  </si>
+  <si>
+    <t>KRISHNASOUL</t>
+  </si>
+  <si>
+    <t>Kolam - 10x10 Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/0CAQ5lWIg6M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0CAQ5lWIg6M</t>
+  </si>
+  <si>
+    <t>0CAQ5lWIg6M</t>
+  </si>
+  <si>
+    <t>Madhavi Creations TV</t>
+  </si>
+  <si>
     <t>6wmY90tkzuI&amp;t</t>
   </si>
   <si>
-    <t>Latest simple flower rangoli designs | 7 to 4 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/D7UO9z9KDFg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/D7UO9z9KDFg</t>
-  </si>
-  <si>
-    <t>D7UO9z9KDFg</t>
-  </si>
-  <si>
-    <t>simple rangol</t>
-  </si>
-  <si>
-    <t>Rose flower kolam designs with 7x4 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/PKUNQSJjGkw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/PKUNQSJjGkw</t>
-  </si>
-  <si>
-    <t>PKUNQSJjGkw</t>
-  </si>
-  <si>
-    <t>Latest freehand kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/EaB8SsrZZ0s/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EaB8SsrZZ0s</t>
-  </si>
-  <si>
-    <t>EaB8SsrZZ0s</t>
-  </si>
-  <si>
-    <t>Beautiful and unique rangoli design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/y44KK2ugc60/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/y44KK2ugc60</t>
-  </si>
-  <si>
-    <t>y44KK2ugc60</t>
-  </si>
-  <si>
-    <t>Poonam Borkar</t>
-  </si>
-  <si>
-    <t>Freehand Rangoli Designs with colours</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/2ccsotwQABA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/2ccsotwQABA</t>
-  </si>
-  <si>
-    <t>2ccsotwQABA</t>
-  </si>
-  <si>
-    <t>Shital Daga</t>
-  </si>
-  <si>
-    <t>Simple freehand Rangoli design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/vYmC3Y9I-hg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/vYmC3Y9I-hg</t>
-  </si>
-  <si>
-    <t>vYmC3Y9I-hg</t>
-  </si>
-  <si>
-    <t>Easy freehand Muggulu design</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/0ygWtAJRTuA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0ygWtAJRTuA</t>
-  </si>
-  <si>
-    <t>0ygWtAJRTuA</t>
-  </si>
-  <si>
-    <t>Quick freehand Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/z4R9Uw7dVfg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/z4R9Uw7dVfg</t>
-  </si>
-  <si>
-    <t>z4R9Uw7dVfg</t>
-  </si>
-  <si>
-    <t>Freehand rangoli designs with colours</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/BY3roEOUKNA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/BY3roEOUKNA</t>
-  </si>
-  <si>
-    <t>BY3roEOUKNA</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/NhXUCsJm604/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/NhXUCsJm604</t>
-  </si>
-  <si>
-    <t>NhXUCsJm604</t>
-  </si>
-  <si>
-    <t>Rangoli design, colourful and beautiful</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/IBnFvSY1i8U/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/IBnFvSY1i8U</t>
-  </si>
-  <si>
-    <t>IBnFvSY1i8U</t>
-  </si>
-  <si>
-    <t>DEEPIKA RANGOLI AND ART</t>
-  </si>
-  <si>
-    <t>Beautiful Rainbow Rangoli Designs With Colours</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/iDWs8nGcXEk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/iDWs8nGcXEk</t>
-  </si>
-  <si>
-    <t>iDWs8nGcXEk</t>
-  </si>
-  <si>
-    <t>2 easy small multicolored rangoli designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/hiLfJsx9zQU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/hiLfJsx9zQU</t>
-  </si>
-  <si>
-    <t>hiLfJsx9zQU</t>
-  </si>
-  <si>
-    <t>easy rangoli for beginners</t>
-  </si>
-  <si>
-    <t>Innovative Daily Rangoli Designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/NkRZlY9OTLg/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/NkRZlY9OTLg</t>
-  </si>
-  <si>
-    <t>NkRZlY9OTLg</t>
-  </si>
-  <si>
-    <t>Shital Mahajan</t>
-  </si>
-  <si>
-    <t>Innovative Rangoli Designs Using CD and Bangles</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/7IVYpHMBfbE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/7IVYpHMBfbE</t>
-  </si>
-  <si>
-    <t>7IVYpHMBfbE</t>
-  </si>
-  <si>
-    <t>Birds kolam designs with 5x3 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZksVIwbFU8A/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZksVIwbFU8A</t>
-  </si>
-  <si>
-    <t>ZksVIwbFU8A&amp;t</t>
-  </si>
-  <si>
-    <t>beautiful peacock kolam designs with 7x4 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/yAeBRQErUOQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/yAeBRQErUOQ</t>
-  </si>
-  <si>
-    <t>yAeBRQErUOQ</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/kbazjyy7nW4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/kbazjyy7nW4</t>
-  </si>
-  <si>
-    <t>kbazjyy7nW4</t>
-  </si>
-  <si>
-    <t>kolam with 7 dots and 6 birds</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ULRQVTxKNVI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ULRQVTxKNVI</t>
-  </si>
-  <si>
-    <t>ULRQVTxKNVI</t>
-  </si>
-  <si>
-    <t>Bird Rangoli Kolam Designs with 6x4 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/pu6ZynK1Uiw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/pu6ZynK1Uiw</t>
-  </si>
-  <si>
-    <t>pu6ZynK1Uiw</t>
-  </si>
-  <si>
-    <t>4 to 4 dots birds kolam designs</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EpqHe9lApVY</t>
-  </si>
-  <si>
-    <t>EpqHe9lApVY</t>
-  </si>
-  <si>
-    <t>modern kolam with dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Kcjwl39D6Ks/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Kcjwl39D6Ks</t>
-  </si>
-  <si>
-    <t>Kcjwl39D6Ks</t>
-  </si>
-  <si>
-    <t>Flower Rangoli # Peacock Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Y9elOLXRHn8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Y9elOLXRHn8</t>
-  </si>
-  <si>
-    <t>Y9elOLXRHn8</t>
-  </si>
-  <si>
-    <t>Rangoli Arts &amp; Salad Decorations</t>
-  </si>
-  <si>
-    <t>Onam Pookalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/OXm5BcxnjnI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/OXm5BcxnjnI</t>
-  </si>
-  <si>
-    <t>OXm5BcxnjnI</t>
-  </si>
-  <si>
-    <t>Friday Magazine</t>
-  </si>
-  <si>
-    <t>simple onam atha pookalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/AmNPprbICPQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/AmNPprbICPQ</t>
-  </si>
-  <si>
-    <t>AmNPprbICPQ</t>
-  </si>
-  <si>
-    <t>ABD AnyBody Can Draw</t>
-  </si>
-  <si>
-    <t>How to make a Onam pookalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/9zKF8Dnf9sw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9zKF8Dnf9sw</t>
-  </si>
-  <si>
-    <t>9zKF8Dnf9sw</t>
-  </si>
-  <si>
-    <t>tim thankachan</t>
-  </si>
-  <si>
-    <t>Making Onappookkalam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/wsozvVUwa70/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wsozvVUwa70</t>
-  </si>
-  <si>
-    <t>wsozvVUwa70</t>
-  </si>
-  <si>
-    <t>Deepa George</t>
-  </si>
-  <si>
-    <t>Make Flower Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/tp3wwLvQOTE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/tp3wwLvQOTE</t>
-  </si>
-  <si>
-    <t>tp3wwLvQOTE</t>
-  </si>
-  <si>
-    <t>Cinecurry Lifestyle</t>
-  </si>
-  <si>
-    <t>flower rangoli designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/QMs-RW7DbmA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/QMs-RW7DbmA</t>
-  </si>
-  <si>
-    <t>QMs-RW7DbmA</t>
-  </si>
-  <si>
-    <t>Rangoli designs with colours // Arts and Crafts</t>
-  </si>
-  <si>
-    <t>Beautiful flower kolam with colors</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/IGTojrViJho/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/IGTojrViJho</t>
-  </si>
-  <si>
-    <t>IGTojrViJho</t>
-  </si>
-  <si>
-    <t>7x4 dots flower kolam designs with colors</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/cze3to9EfV4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/cze3to9EfV4</t>
-  </si>
-  <si>
-    <t>cze3to9EfV4</t>
-  </si>
-  <si>
-    <t>Beautiful rangoli design with 7X4 middle dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/pXs5EidCUhM/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/pXs5EidCUhM</t>
-  </si>
-  <si>
-    <t>pXs5EidCUhM</t>
-  </si>
-  <si>
-    <t>rose flower kolam with 13x7 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/LHf8IoR7Kuo/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/LHf8IoR7Kuo</t>
-  </si>
-  <si>
-    <t>LHf8IoR7Kuo</t>
-  </si>
-  <si>
-    <t>Sankranthi Flowers Kolam Designs With 13-7 middle</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/71YTUzGFvd4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/71YTUzGFvd4</t>
-  </si>
-  <si>
-    <t>71YTUzGFvd4</t>
-  </si>
-  <si>
-    <t>flower kolam designs with 5 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/17rX5E2VAck/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/17rX5E2VAck</t>
-  </si>
-  <si>
-    <t>17rX5E2VAck</t>
-  </si>
-  <si>
-    <t>simple rangoli festival arts with dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/4f3KCa_cDjc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/4f3KCa_cDjc</t>
-  </si>
-  <si>
-    <t>4f3KCa_cDjc</t>
-  </si>
-  <si>
-    <t>Small Fish Kolam Designs With 11-1 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/voUw4jbAdvs/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/voUw4jbAdvs</t>
-  </si>
-  <si>
-    <t>voUw4jbAdvs</t>
-  </si>
-  <si>
-    <t>simple fish rangoli kolam.11*6 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/_JQSmK6YNbw/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/_JQSmK6YNbw</t>
-  </si>
-  <si>
-    <t>JQSmK6YNbw</t>
-  </si>
-  <si>
-    <t>color rangoli</t>
-  </si>
-  <si>
-    <t>Sankranthi Simple Fish Kolam Designs With 15-8 middle</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/A6WMPqskr58/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/A6WMPqskr58</t>
-  </si>
-  <si>
-    <t>A6WMPqskr58</t>
-  </si>
-  <si>
-    <t>Dot kolam 9 to 9 straight with fish</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/akUWq8FYNPU/mqdefault.jpg?</t>
-  </si>
-  <si>
-    <t>https://youtu.be/akUWq8FYNPU</t>
-  </si>
-  <si>
-    <t>akUWq8FYNPU</t>
-  </si>
-  <si>
-    <t>Learn Kolam</t>
-  </si>
-  <si>
-    <t>easy kolam fish with dots 9 to 5</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Cie_WpzXwS4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Cie_WpzXwS4</t>
-  </si>
-  <si>
-    <t>Cie_WpzXwS4</t>
-  </si>
-  <si>
-    <t>fish kolam designs with 5x3 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/TCp4EWQKxCE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/TCp4EWQKxCE</t>
-  </si>
-  <si>
-    <t>TCp4EWQKxCE</t>
-  </si>
-  <si>
-    <t>Easy Color Rangoli Design For HOLI Festival</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/1gPPU1vj304/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1gPPU1vj304</t>
-  </si>
-  <si>
-    <t>1gPPU1vj304</t>
-  </si>
-  <si>
-    <t>Pakka Local</t>
-  </si>
-  <si>
-    <t>Colorful Holi Special Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/aMIOjhjnUok/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aMIOjhjnUok</t>
-  </si>
-  <si>
-    <t>aMIOjhjnUok</t>
-  </si>
-  <si>
-    <t>Rangoli &amp; Art</t>
-  </si>
-  <si>
-    <t>simple kolam designs with 7x3 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/G64iGZ7PIU4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/G64iGZ7PIU4</t>
-  </si>
-  <si>
-    <t>G64iGZ7PIU4</t>
-  </si>
-  <si>
-    <t>Rangoli Design with colours for fesitvals and competitions with dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/OKDdWOgz6mo/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/OKDdWOgz6mo</t>
-  </si>
-  <si>
-    <t>OKDdWOgz6mo</t>
-  </si>
-  <si>
-    <t>Rangoli design with Colours Competitions With dots 11x6</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3P3vt6M2His/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3P3vt6M2His</t>
-  </si>
-  <si>
-    <t>3P3vt6M2His</t>
-  </si>
-  <si>
-    <t>Easy Colourful Rangoli Design for Festivals with dots 13x7</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/RFA8wIdDQcc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RFA8wIdDQcc</t>
-  </si>
-  <si>
-    <t>RFA8wIdDQcc</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Pulli Kolam | Dotted Kolam</t>
-  </si>
-  <si>
-    <t>pulli</t>
-  </si>
-  <si>
-    <t>Kolam, Muggulu, Rangoli, With colors, With dots</t>
-  </si>
-  <si>
-    <t>New Year Kolam</t>
-  </si>
-  <si>
-    <t>newyear</t>
-  </si>
-  <si>
-    <t>Pongal Kolam | Sankranthi Muggulu</t>
-  </si>
-  <si>
-    <t>pongal</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>Diwali Rangoli | Deepavali Kolam</t>
-  </si>
-  <si>
-    <t>diwali</t>
-  </si>
-  <si>
-    <t>Margazhi Kolam</t>
-  </si>
-  <si>
-    <t>margazhi</t>
-  </si>
-  <si>
-    <t>Flower Design Kolam</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>Freehand Rangoli | Kolam without dots</t>
-  </si>
-  <si>
-    <t>freehand</t>
-  </si>
-  <si>
-    <t>Freehand Color Rangoli</t>
-  </si>
-  <si>
-    <t>freecolor</t>
-  </si>
-  <si>
-    <t>Birds Kolam</t>
-  </si>
-  <si>
-    <t>birds</t>
-  </si>
-  <si>
-    <t>Kolam with Flowers</t>
-  </si>
-  <si>
-    <t>withflowers</t>
-  </si>
-  <si>
-    <t>Onam Rangoli</t>
-  </si>
-  <si>
-    <t>onam</t>
-  </si>
-  <si>
-    <t>Fish Kolam</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>Holi Rangoli</t>
-  </si>
-  <si>
-    <t>holi</t>
-  </si>
-  <si>
-    <t>Christmas Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/kaJ97Hzz9J8/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>Sangu Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/U-G6rBKIM_k/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>sangu</t>
-  </si>
-  <si>
-    <t>Maha Shivaratri Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/C5pKc_8eGpQ/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>shiva</t>
-  </si>
-  <si>
-    <t>Vinayagar Chaturthi Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/fuqzN6iCKoI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>vinayagar</t>
-  </si>
-  <si>
-    <t>Butterfly Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/9JQVTQdqXS0/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>butterfly</t>
-  </si>
-  <si>
-    <t>karthigai Deepam Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/sPqNRUmLHi0/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>karthigai</t>
-  </si>
-  <si>
-    <t>Rose Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZtyXKiTDOtc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>Lotus Kolam</t>
-  </si>
-  <si>
-    <t>lotus</t>
-  </si>
-  <si>
-    <t>Peacock Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/A1dWDe6vLzo/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>peacock</t>
-  </si>
-  <si>
-    <t>Other Festival Kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/XmnZ2Kj6dvU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama Navami, Saraswathi Pooja, Chitra Pournami, Aadi Perukku, Tamil new Year </t>
-  </si>
-  <si>
-    <t>Santa claus Rangoli with 21x14 straight Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Ooic3qT4PRA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Ooic3qT4PRA</t>
-  </si>
-  <si>
-    <t>Ooic3qT4PRA</t>
-  </si>
-  <si>
-    <t>Simple Christmas Rangoli Design with 5 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/3l2Ltp-28HI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3l2Ltp-28HI</t>
-  </si>
-  <si>
-    <t>3l2Ltp-28HI</t>
-  </si>
-  <si>
-    <t>Daily Rangoli Designs</t>
-  </si>
-  <si>
-    <t>Christmas Rangoli Design with colours &amp; dots 10x8</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/xe5Wsr78wq4/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xe5Wsr78wq4</t>
-  </si>
-  <si>
-    <t>xe5Wsr78wq4</t>
-  </si>
-  <si>
-    <t>Christmas rangoli design</t>
-  </si>
-  <si>
-    <t>https://youtu.be/kaJ97Hzz9J8</t>
-  </si>
-  <si>
-    <t>kaJ97Hzz9J8</t>
-  </si>
-  <si>
-    <t>Christmas Special Kolam | 13×7 interlaced dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/k_0ZGa4vcpc/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/k_0ZGa4vcpc</t>
-  </si>
-  <si>
-    <t>k_0ZGa4vcpc</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/UHRy0sqUM1I/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UHRy0sqUM1I</t>
-  </si>
-  <si>
-    <t>UHRy0sqUM1I</t>
-  </si>
-  <si>
-    <t>Christmas Rangoli Designs with 13x 7 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/i6jrBhddpaE/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/i6jrBhddpaE</t>
-  </si>
-  <si>
-    <t>i6jrBhddpaE</t>
-  </si>
-  <si>
-    <t>sangu kolam | 15*8 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/COi3WRP0TNs/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>COi3WRP0TNs</t>
-  </si>
-  <si>
-    <t>Sangu kolam</t>
-  </si>
-  <si>
-    <t>https://youtu.be/U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>U-G6rBKIM_k</t>
-  </si>
-  <si>
-    <t>Rangoli New Design</t>
-  </si>
-  <si>
-    <t>Sangu kolam with dots/poo kolam with 7 to 1 dot</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/ZcmwXlw2MOk/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>ZcmwXlw2MOk</t>
-  </si>
-  <si>
-    <t>5X1 middle dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/L5LEiGaeu1I/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>L5LEiGaeu1I</t>
-  </si>
-  <si>
-    <t>Latest 9-5 Inerlaced Dots Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/b5bu_o-zy3k/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>b5bu_o-zy3k</t>
-  </si>
-  <si>
-    <t>Daily Rangoli</t>
-  </si>
-  <si>
-    <t>Festivals with dots 13x7</t>
-  </si>
-  <si>
-    <t>13x7 Easy Rainbow Rangoli</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/1Xmc9xb8A0s/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>1Xmc9xb8A0s</t>
-  </si>
-  <si>
-    <t>17to17 dots rangoli for mahashivratri</t>
-  </si>
-  <si>
-    <t>https://youtu.be/C5pKc_8eGpQ</t>
-  </si>
-  <si>
-    <t>C5pKc_8eGpQ</t>
-  </si>
-  <si>
-    <t>Hemlata's Rangoli Designs</t>
-  </si>
-  <si>
-    <t>Special Shiva ratri Muggulu</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/GSRd1_aRxHo/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GSRd1_aRxHo</t>
-  </si>
-  <si>
-    <t>GSRd1_aRxHo</t>
-  </si>
-  <si>
-    <t>Lovely Kolam</t>
-  </si>
-  <si>
-    <t>dots rangoli designs</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/68829aQjCs0/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/68829aQjCs0</t>
-  </si>
-  <si>
-    <t>68829aQjCs0</t>
-  </si>
-  <si>
-    <t>Easy 11x11 dots Shiva Lingam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/Cw1w-p2foSU/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Cw1w-p2foSU</t>
-  </si>
-  <si>
-    <t>Cw1w-p2foSU</t>
-  </si>
-  <si>
-    <t>Pedda Balashiksha</t>
-  </si>
-  <si>
-    <t>Shiva muggulu | kolam</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/-e2PxHvAUd0/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/-e2PxHvAUd0</t>
-  </si>
-  <si>
-    <t>e2PxHvAUd0</t>
-  </si>
-  <si>
-    <t>KRISHNASOUL</t>
-  </si>
-  <si>
-    <t>Kolam - 10x10 Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/0CAQ5lWIg6M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0CAQ5lWIg6M</t>
-  </si>
-  <si>
-    <t>0CAQ5lWIg6M</t>
-  </si>
-  <si>
-    <t>Madhavi Creations TV</t>
+    <t>Beautiful Butterfly rangoli kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/sFyte69z454/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sFyte69z454</t>
+  </si>
+  <si>
+    <t>sFyte69z454</t>
+  </si>
+  <si>
+    <t>simple butterfly kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9JQVTQdqXS0</t>
+  </si>
+  <si>
+    <t>9JQVTQdqXS0</t>
+  </si>
+  <si>
+    <t>Rangoli Art | 7 to 4 Interlaced Dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/yzJ8lfMxlck/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yzJ8lfMxlck</t>
+  </si>
+  <si>
+    <t>yzJ8lfMxlck</t>
+  </si>
+  <si>
+    <t>Simple Butterfly Rangoli Design with Colours &amp; dots 9x5</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/HnFDl171M4M/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HnFDl171M4M</t>
+  </si>
+  <si>
+    <t>HnFDl171M4M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple flower rangoli with dots 12-2-2 </t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/KiCPCRXBOwo/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KiCPCRXBOwo</t>
+  </si>
+  <si>
+    <t>KiCPCRXBOwo</t>
+  </si>
+  <si>
+    <t>Dheepiika Rangolis</t>
+  </si>
+  <si>
+    <t>butterfly kolam 8 by 8 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/I_SIoefeXYA/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/I_SIoefeXYA</t>
+  </si>
+  <si>
+    <t>I_SIoefeXYA</t>
+  </si>
+  <si>
+    <t>Beautiful butterfly rangoli kolam |13*7 dots</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/XWralSEEXGI/mqdefault.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XWralSEEXGI</t>
+  </si>
+  <si>
+    <t>XWralSEEXGI</t>
   </si>
   <si>
     <t>ganesh chaturthi special rangoli design</t>
@@ -1949,90 +2036,6 @@
     <t>fuqzN6iCKoI</t>
   </si>
   <si>
-    <t>Beautiful Butterfly rangoli kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/sFyte69z454/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/sFyte69z454</t>
-  </si>
-  <si>
-    <t>sFyte69z454</t>
-  </si>
-  <si>
-    <t>simple butterfly kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9JQVTQdqXS0</t>
-  </si>
-  <si>
-    <t>9JQVTQdqXS0</t>
-  </si>
-  <si>
-    <t>Rangoli Art | 7 to 4 Interlaced Dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/yzJ8lfMxlck/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/yzJ8lfMxlck</t>
-  </si>
-  <si>
-    <t>yzJ8lfMxlck</t>
-  </si>
-  <si>
-    <t>Simple Butterfly Rangoli Design with Colours &amp; dots 9x5</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/HnFDl171M4M/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/HnFDl171M4M</t>
-  </si>
-  <si>
-    <t>HnFDl171M4M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simple flower rangoli with dots 12-2-2 </t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/KiCPCRXBOwo/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/KiCPCRXBOwo</t>
-  </si>
-  <si>
-    <t>KiCPCRXBOwo</t>
-  </si>
-  <si>
-    <t>Dheepiika Rangolis</t>
-  </si>
-  <si>
-    <t>butterfly kolam 8 by 8 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/I_SIoefeXYA/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/I_SIoefeXYA</t>
-  </si>
-  <si>
-    <t>I_SIoefeXYA</t>
-  </si>
-  <si>
-    <t>Beautiful butterfly rangoli kolam |13*7 dots</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/XWralSEEXGI/mqdefault.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/XWralSEEXGI</t>
-  </si>
-  <si>
-    <t>XWralSEEXGI</t>
-  </si>
-  <si>
     <t>Daily Rangoli Design With Colours and Dots 13x7</t>
   </si>
   <si>
@@ -2232,9 +2235,6 @@
   </si>
   <si>
     <t>JoOTT7Cwrs0</t>
-  </si>
-  <si>
-    <t>6wmY90tkzuI</t>
   </si>
   <si>
     <t>11 to 6 interlaced Dots - Easy Rangoli</t>
@@ -2460,13 +2460,13 @@
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2567,10 +2567,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2801,7 +2801,7 @@
       <c r="D4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <v>110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -2836,7 +2836,7 @@
         <v>114</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2853,7 +2853,7 @@
         <v>118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -2938,7 +2938,7 @@
         <v>141</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3023,7 @@
         <v>329</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -3040,7 +3040,7 @@
         <v>333</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -3057,7 +3057,7 @@
         <v>336</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -3099,7 +3099,7 @@
         <v>345</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>346</v>
@@ -3108,7 +3108,7 @@
         <v>347</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -3125,7 +3125,7 @@
         <v>351</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -3199,7 +3199,7 @@
         <v>390</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -3250,7 +3250,7 @@
         <v>402</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -3267,7 +3267,7 @@
         <v>406</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -3284,7 +3284,7 @@
         <v>410</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -3301,7 +3301,7 @@
         <v>414</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3541,7 +3541,7 @@
         <v>418</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -3575,7 +3575,7 @@
         <v>427</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3609,7 +3609,7 @@
         <v>436</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -3626,7 +3626,7 @@
         <v>440</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3694,7 @@
         <v>472</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>473</v>
@@ -3705,7 +3705,7 @@
         <v>474</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>475</v>
@@ -3771,7 +3771,7 @@
         <v>485</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>486</v>
@@ -4054,7 +4054,7 @@
         <v>454</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -4505,36 +4505,36 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4599,7 +4599,7 @@
         <v>222</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>260</v>
+        <v>608</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>101</v>
@@ -4670,7 +4670,7 @@
         <v>402</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -5021,172 +5021,172 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5253,50 +5253,50 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>146</v>
@@ -5304,70 +5304,70 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>622</v>
+        <v>651</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>623</v>
+        <v>652</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>507</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -5423,16 +5423,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>423</v>
@@ -5440,16 +5440,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>423</v>
@@ -5457,16 +5457,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>101</v>
@@ -5474,16 +5474,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>146</v>
@@ -5491,33 +5491,33 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>155</v>
@@ -5525,16 +5525,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>423</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>146</v>
@@ -5611,33 +5611,33 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>513</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>423</v>
@@ -5645,16 +5645,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>423</v>
@@ -5662,16 +5662,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>423</v>
@@ -5679,33 +5679,33 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>101</v>
@@ -5713,16 +5713,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>101</v>
@@ -5784,41 +5784,41 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>703</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>256</v>
@@ -5835,19 +5835,19 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -5869,16 +5869,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>178</v>
@@ -5898,24 +5898,24 @@
         <v>402</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>516</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5974,16 +5974,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>259</v>
@@ -5991,36 +5991,36 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -6034,7 +6034,7 @@
         <v>222</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>732</v>
+        <v>260</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>101</v>
@@ -6071,7 +6071,7 @@
         <v>740</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8">
@@ -6088,7 +6088,7 @@
         <v>743</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6173,7 @@
         <v>333</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -6190,7 +6190,7 @@
         <v>753</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -6207,7 +6207,7 @@
         <v>756</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -6241,7 +6241,7 @@
         <v>765</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -6258,7 +6258,7 @@
         <v>197</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6326,7 +6326,7 @@
         <v>772</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -6360,7 +6360,7 @@
         <v>780</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -6466,172 +6466,172 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>87</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -6748,7 +6748,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -6782,7 +6782,7 @@
         <v>193</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -6799,7 +6799,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -6849,7 +6849,7 @@
       <c r="D10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6866,12 +6866,12 @@
       <c r="D11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7038,7 +7038,7 @@
         <v>169</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -7225,7 +7225,7 @@
         <v>240</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -7313,7 +7313,7 @@
         <v>249</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -7464,7 +7464,7 @@
         <v>273</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -7560,10 +7560,10 @@
         <v>297</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>283</v>
@@ -7626,7 +7626,7 @@
         <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>301</v>
@@ -7669,7 +7669,7 @@
         <v>311</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
